--- a/output/EventSummary/composition-es-1.xlsx
+++ b/output/EventSummary/composition-es-1.xlsx
@@ -206,113 +206,113 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t>Composition.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Composition.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Composition.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>Composition.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>Composition.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
     <t xml:space="preserve">inv-dh-cmp-01:One meta.profile shall be 'http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/composition-es-1' {Composition.meta.profile.where($this='http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/composition-es-1').exists()}
 </t>
-  </si>
-  <si>
-    <t>Composition.meta.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Composition.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Composition.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This values changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t>Composition.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>When the resource version last changed</t>
-  </si>
-  <si>
-    <t>When the resource last changed - e.g. when the version changed.</t>
-  </si>
-  <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant.</t>
-  </si>
-  <si>
-    <t>Meta.lastUpdated</t>
-  </si>
-  <si>
-    <t>Composition.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Meta.profile</t>
   </si>
   <si>
     <t>Composition.meta.security</t>
@@ -1421,7 +1421,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">inv-dh-cmp-03:A list of medication changes from this event or an assertion that there are no current medications shall be present, but not both {Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').exists() implies (Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is MedicationStatement).exists() xor Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is Observation ).exists())}
+    <t xml:space="preserve">inv-dh-cmp-03:A list of medication changes from this event or an assertion that there are no current medications shall be present, but not both {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '10160-0').exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '10160-0').entry.resolve().where($this is List).exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '10160-0').entry.resolve().where($this is Observation ).exists())}
 </t>
   </si>
   <si>
@@ -1456,8 +1456,8 @@
     <t>Medical history</t>
   </si>
   <si>
-    <t xml:space="preserve">inv-dh-cmp-04:At least one condition or procedure shall be present, or an assertion that there is no history shall be present, but not both {Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is value and value.coding.code = '1224831000168103').exists())}
-</t>
+    <t>inv-dh-cmp-04:At least one condition or procedure shall be present, or an assertion that there is no history shall be present, but not both {Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is value and value.coding.code = '1224831000168103').exists())}
+inv-dh-cmp-12:This section shall contain at most one assertion of no relevant finding entry and it shall assert no relevant medical history {Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is value and value.coding.code = '1224831000168103').exists())}</t>
   </si>
   <si>
     <t>immunisations</t>
@@ -1491,8 +1491,8 @@
     <t>Administered and/or non-administered vaccines</t>
   </si>
   <si>
-    <t xml:space="preserve">inv-dh-cmp-05:At least one statement of vaccine or an assertion that there is no history of immunisation shall be present, but not both {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Immunization).exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation ).exists())}
-</t>
+    <t>inv-dh-cmp-05:At least one statement of vaccine or an assertion that there is no history of immunisation shall be present, but not both {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Immunization).exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation ).exists())}
+inv-dh-cmp-11:This section shall contain at most one assertion of no relevant finding entry and it shall assert no previous immunisations {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is value and value.coding.code = '1234401000168109').exists())}</t>
   </si>
 </sst>
 </file>
@@ -2116,7 +2116,7 @@
         <v>39</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>39</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2153,13 +2153,13 @@
         <v>39</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2210,22 +2210,22 @@
         <v>39</v>
       </c>
       <c r="AE5" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG5" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>68</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>39</v>
@@ -2236,11 +2236,11 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2259,16 +2259,16 @@
         <v>39</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>73</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2306,19 +2306,19 @@
         <v>39</v>
       </c>
       <c r="AA6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AB6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="AC6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD6" t="s" s="2">
+      <c r="AE6" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>40</v>
@@ -2333,7 +2333,7 @@
         <v>39</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>39</v>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -2370,13 +2370,13 @@
         <v>52</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2426,7 +2426,7 @@
         <v>39</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>40</v>
@@ -2452,7 +2452,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2475,16 +2475,16 @@
         <v>51</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2534,7 +2534,7 @@
         <v>39</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>40</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2583,16 +2583,16 @@
         <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2642,7 +2642,7 @@
         <v>39</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>40</v>
@@ -2654,7 +2654,7 @@
         <v>39</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>39</v>
@@ -2907,7 +2907,7 @@
         <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>114</v>
@@ -3339,7 +3339,7 @@
         <v>39</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>145</v>
@@ -3384,14 +3384,14 @@
         <v>39</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>147</v>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3659,7 +3659,7 @@
         <v>39</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>160</v>
@@ -3668,7 +3668,7 @@
         <v>161</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3954,7 +3954,7 @@
         <v>179</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>180</v>
@@ -4174,7 +4174,7 @@
         <v>201</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>193</v>
@@ -4641,7 +4641,7 @@
         <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>237</v>
@@ -4913,7 +4913,7 @@
         <v>39</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>249</v>
@@ -4965,13 +4965,13 @@
         <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5022,22 +5022,22 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>68</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>39</v>
@@ -5071,7 +5071,7 @@
         <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>145</v>
@@ -5116,17 +5116,17 @@
         <v>39</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -5234,7 +5234,7 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -5283,7 +5283,7 @@
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>160</v>
@@ -5292,7 +5292,7 @@
         <v>267</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5829,13 +5829,13 @@
         <v>39</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5886,22 +5886,22 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>68</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>39</v>
@@ -5935,7 +5935,7 @@
         <v>39</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>145</v>
@@ -5980,17 +5980,17 @@
         <v>39</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB40" s="2"/>
       <c r="AC40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE40" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -6098,7 +6098,7 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -6147,7 +6147,7 @@
         <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>160</v>
@@ -6156,7 +6156,7 @@
         <v>267</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6799,13 +6799,13 @@
         <v>39</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6856,22 +6856,22 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>68</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>39</v>
@@ -6886,7 +6886,7 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6905,16 +6905,16 @@
         <v>39</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>73</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6964,7 +6964,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6979,7 +6979,7 @@
         <v>39</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>39</v>
@@ -7013,7 +7013,7 @@
         <v>51</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>160</v>
@@ -7022,7 +7022,7 @@
         <v>267</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7445,13 +7445,13 @@
         <v>39</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7502,22 +7502,22 @@
         <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>68</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>39</v>
@@ -7532,7 +7532,7 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7551,16 +7551,16 @@
         <v>39</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>73</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7610,7 +7610,7 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -7625,7 +7625,7 @@
         <v>39</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>39</v>
@@ -7659,7 +7659,7 @@
         <v>51</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>160</v>
@@ -7668,7 +7668,7 @@
         <v>267</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8056,7 +8056,7 @@
         <v>351</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>39</v>
@@ -8139,7 +8139,7 @@
         <v>39</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>352</v>
@@ -8191,13 +8191,13 @@
         <v>39</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8248,22 +8248,22 @@
         <v>39</v>
       </c>
       <c r="AE61" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>68</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>39</v>
@@ -8297,7 +8297,7 @@
         <v>39</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>145</v>
@@ -8342,17 +8342,17 @@
         <v>39</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB62" s="2"/>
       <c r="AC62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE62" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -8460,7 +8460,7 @@
         <v>39</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
@@ -8509,7 +8509,7 @@
         <v>51</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>160</v>
@@ -8518,7 +8518,7 @@
         <v>267</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8617,7 +8617,7 @@
         <v>39</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>368</v>
@@ -9024,7 +9024,7 @@
         <v>392</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>193</v>
@@ -9134,7 +9134,7 @@
         <v>400</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>39</v>
@@ -9352,7 +9352,7 @@
         <v>415</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>39</v>
@@ -9599,13 +9599,13 @@
         <v>39</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9656,22 +9656,22 @@
         <v>39</v>
       </c>
       <c r="AE74" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>68</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>39</v>
@@ -9705,7 +9705,7 @@
         <v>39</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>145</v>
@@ -9750,17 +9750,17 @@
         <v>39</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB75" s="2"/>
       <c r="AC75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE75" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>40</v>
@@ -9868,7 +9868,7 @@
         <v>39</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>40</v>
@@ -9917,7 +9917,7 @@
         <v>51</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>160</v>
@@ -9926,7 +9926,7 @@
         <v>267</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10025,7 +10025,7 @@
         <v>39</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>368</v>
@@ -10432,7 +10432,7 @@
         <v>392</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>193</v>
@@ -10542,7 +10542,7 @@
         <v>400</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>39</v>
@@ -10760,7 +10760,7 @@
         <v>415</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>39</v>
@@ -11007,13 +11007,13 @@
         <v>39</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K87" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K87" t="s" s="2">
+      <c r="L87" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11064,22 +11064,22 @@
         <v>39</v>
       </c>
       <c r="AE87" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>68</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>39</v>
@@ -11113,7 +11113,7 @@
         <v>39</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>145</v>
@@ -11158,17 +11158,17 @@
         <v>39</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB88" s="2"/>
       <c r="AC88" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE88" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>40</v>
@@ -11276,7 +11276,7 @@
         <v>39</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>40</v>
@@ -11325,7 +11325,7 @@
         <v>51</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K90" t="s" s="2">
         <v>160</v>
@@ -11334,7 +11334,7 @@
         <v>267</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -11433,7 +11433,7 @@
         <v>39</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K91" t="s" s="2">
         <v>368</v>
@@ -11840,7 +11840,7 @@
         <v>392</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>193</v>
@@ -11950,7 +11950,7 @@
         <v>400</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>39</v>
@@ -12166,7 +12166,7 @@
         <v>415</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>39</v>
@@ -12413,13 +12413,13 @@
         <v>39</v>
       </c>
       <c r="J100" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K100" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K100" t="s" s="2">
+      <c r="L100" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12470,22 +12470,22 @@
         <v>39</v>
       </c>
       <c r="AE100" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>68</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>39</v>
@@ -12519,7 +12519,7 @@
         <v>39</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K101" t="s" s="2">
         <v>145</v>
@@ -12564,17 +12564,17 @@
         <v>39</v>
       </c>
       <c r="AA101" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB101" s="2"/>
       <c r="AC101" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE101" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>40</v>
@@ -12682,7 +12682,7 @@
         <v>39</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>40</v>
@@ -12731,7 +12731,7 @@
         <v>51</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K103" t="s" s="2">
         <v>160</v>
@@ -12740,7 +12740,7 @@
         <v>267</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -12839,7 +12839,7 @@
         <v>39</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K104" t="s" s="2">
         <v>368</v>
@@ -13246,7 +13246,7 @@
         <v>392</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>193</v>
@@ -13356,7 +13356,7 @@
         <v>400</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>39</v>
@@ -13572,7 +13572,7 @@
         <v>415</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>39</v>
@@ -13819,13 +13819,13 @@
         <v>39</v>
       </c>
       <c r="J113" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K113" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K113" t="s" s="2">
+      <c r="L113" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -13876,22 +13876,22 @@
         <v>39</v>
       </c>
       <c r="AE113" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>68</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>39</v>
@@ -13925,7 +13925,7 @@
         <v>39</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K114" t="s" s="2">
         <v>145</v>
@@ -13970,17 +13970,17 @@
         <v>39</v>
       </c>
       <c r="AA114" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB114" s="2"/>
       <c r="AC114" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD114" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE114" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>40</v>
@@ -14088,7 +14088,7 @@
         <v>39</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>40</v>
@@ -14137,7 +14137,7 @@
         <v>51</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K116" t="s" s="2">
         <v>160</v>
@@ -14146,7 +14146,7 @@
         <v>267</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
@@ -14245,7 +14245,7 @@
         <v>39</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K117" t="s" s="2">
         <v>368</v>
@@ -14652,7 +14652,7 @@
         <v>392</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>193</v>
@@ -14762,7 +14762,7 @@
         <v>400</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>39</v>
@@ -14978,7 +14978,7 @@
         <v>415</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>39</v>
@@ -15225,13 +15225,13 @@
         <v>39</v>
       </c>
       <c r="J126" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K126" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K126" t="s" s="2">
+      <c r="L126" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -15282,22 +15282,22 @@
         <v>39</v>
       </c>
       <c r="AE126" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>68</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>39</v>
@@ -15331,7 +15331,7 @@
         <v>39</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K127" t="s" s="2">
         <v>145</v>
@@ -15376,17 +15376,17 @@
         <v>39</v>
       </c>
       <c r="AA127" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB127" s="2"/>
       <c r="AC127" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD127" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE127" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AE127" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>40</v>
@@ -15494,7 +15494,7 @@
         <v>39</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>40</v>
@@ -15543,7 +15543,7 @@
         <v>51</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K129" t="s" s="2">
         <v>160</v>
@@ -15552,7 +15552,7 @@
         <v>267</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
@@ -15651,7 +15651,7 @@
         <v>39</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K130" t="s" s="2">
         <v>368</v>
@@ -16058,7 +16058,7 @@
         <v>392</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>193</v>
@@ -16168,7 +16168,7 @@
         <v>400</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>39</v>
@@ -16384,7 +16384,7 @@
         <v>415</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>39</v>

--- a/output/EventSummary/composition-es-1.xlsx
+++ b/output/EventSummary/composition-es-1.xlsx
@@ -302,7 +302,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
+    <t>A list of profiles (references to [StructureDefinition](https://build.fhir.org/ig/hl7au/au-fhir-base/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](https://build.fhir.org/ig/hl7au/au-fhir-base/).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>

--- a/output/EventSummary/composition-es-1.xlsx
+++ b/output/EventSummary/composition-es-1.xlsx
@@ -206,6 +206,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">inv-dh-cmp-01:One meta.profile shall be 'http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/composition-es-1' {Composition.meta.profile.where($this='http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/composition-es-1').exists()}
+</t>
+  </si>
+  <si>
     <t>Composition.meta.id</t>
   </si>
   <si>
@@ -302,17 +306,13 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](https://build.fhir.org/ig/hl7au/au-fhir-base/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](https://build.fhir.org/ig/hl7au/au-fhir-base/).</t>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
   </si>
   <si>
     <t>Meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inv-dh-cmp-01:One meta.profile shall be 'http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/composition-es-1' {Composition.meta.profile.where($this='http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/composition-es-1').exists()}
-</t>
   </si>
   <si>
     <t>Composition.meta.security</t>
@@ -2116,7 +2116,7 @@
         <v>39</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>39</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2153,13 +2153,13 @@
         <v>39</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -2210,7 +2210,7 @@
         <v>39</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>40</v>
@@ -2225,7 +2225,7 @@
         <v>39</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>39</v>
@@ -2236,11 +2236,11 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2259,16 +2259,16 @@
         <v>39</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2306,19 +2306,19 @@
         <v>39</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>40</v>
@@ -2333,7 +2333,7 @@
         <v>39</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>39</v>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -2370,13 +2370,13 @@
         <v>52</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2426,7 +2426,7 @@
         <v>39</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>40</v>
@@ -2452,7 +2452,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -2475,16 +2475,16 @@
         <v>51</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2534,7 +2534,7 @@
         <v>39</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>40</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2583,16 +2583,16 @@
         <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2642,7 +2642,7 @@
         <v>39</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>40</v>
@@ -2654,7 +2654,7 @@
         <v>39</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>95</v>
+        <v>39</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>39</v>
@@ -2907,7 +2907,7 @@
         <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>114</v>
@@ -3339,7 +3339,7 @@
         <v>39</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>145</v>
@@ -3384,14 +3384,14 @@
         <v>39</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>147</v>
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3659,7 +3659,7 @@
         <v>39</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>160</v>
@@ -3668,7 +3668,7 @@
         <v>161</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3954,7 +3954,7 @@
         <v>179</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>180</v>
@@ -4174,7 +4174,7 @@
         <v>201</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>193</v>
@@ -4641,7 +4641,7 @@
         <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>237</v>
@@ -4913,7 +4913,7 @@
         <v>39</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>249</v>
@@ -4965,13 +4965,13 @@
         <v>39</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5022,7 +5022,7 @@
         <v>39</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>40</v>
@@ -5037,7 +5037,7 @@
         <v>39</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>39</v>
@@ -5071,7 +5071,7 @@
         <v>39</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>145</v>
@@ -5116,17 +5116,17 @@
         <v>39</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB32" s="2"/>
       <c r="AC32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>40</v>
@@ -5234,7 +5234,7 @@
         <v>39</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>40</v>
@@ -5283,7 +5283,7 @@
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>160</v>
@@ -5292,7 +5292,7 @@
         <v>267</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5829,13 +5829,13 @@
         <v>39</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5886,7 +5886,7 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5901,7 +5901,7 @@
         <v>39</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>39</v>
@@ -5935,7 +5935,7 @@
         <v>39</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>145</v>
@@ -5980,17 +5980,17 @@
         <v>39</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB40" s="2"/>
       <c r="AC40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>40</v>
@@ -6098,7 +6098,7 @@
         <v>39</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>40</v>
@@ -6147,7 +6147,7 @@
         <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>160</v>
@@ -6156,7 +6156,7 @@
         <v>267</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6799,13 +6799,13 @@
         <v>39</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6856,7 +6856,7 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6871,7 +6871,7 @@
         <v>39</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>39</v>
@@ -6886,7 +6886,7 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6905,16 +6905,16 @@
         <v>39</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6964,7 +6964,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6979,7 +6979,7 @@
         <v>39</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>39</v>
@@ -7013,7 +7013,7 @@
         <v>51</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>160</v>
@@ -7022,7 +7022,7 @@
         <v>267</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7445,13 +7445,13 @@
         <v>39</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7502,7 +7502,7 @@
         <v>39</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>40</v>
@@ -7517,7 +7517,7 @@
         <v>39</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>39</v>
@@ -7532,7 +7532,7 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7551,16 +7551,16 @@
         <v>39</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7610,7 +7610,7 @@
         <v>39</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>40</v>
@@ -7625,7 +7625,7 @@
         <v>39</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>39</v>
@@ -7659,7 +7659,7 @@
         <v>51</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>160</v>
@@ -7668,7 +7668,7 @@
         <v>267</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8056,7 +8056,7 @@
         <v>351</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>39</v>
@@ -8139,7 +8139,7 @@
         <v>39</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
         <v>352</v>
@@ -8191,13 +8191,13 @@
         <v>39</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8248,7 +8248,7 @@
         <v>39</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
@@ -8263,7 +8263,7 @@
         <v>39</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>39</v>
@@ -8297,7 +8297,7 @@
         <v>39</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>145</v>
@@ -8342,17 +8342,17 @@
         <v>39</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB62" s="2"/>
       <c r="AC62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -8460,7 +8460,7 @@
         <v>39</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
@@ -8509,7 +8509,7 @@
         <v>51</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>160</v>
@@ -8518,7 +8518,7 @@
         <v>267</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8617,7 +8617,7 @@
         <v>39</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>368</v>
@@ -9024,7 +9024,7 @@
         <v>392</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>193</v>
@@ -9134,7 +9134,7 @@
         <v>400</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>39</v>
@@ -9352,7 +9352,7 @@
         <v>415</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>39</v>
@@ -9599,13 +9599,13 @@
         <v>39</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9656,7 +9656,7 @@
         <v>39</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>40</v>
@@ -9671,7 +9671,7 @@
         <v>39</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>39</v>
@@ -9705,7 +9705,7 @@
         <v>39</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>145</v>
@@ -9750,17 +9750,17 @@
         <v>39</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB75" s="2"/>
       <c r="AC75" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>40</v>
@@ -9868,7 +9868,7 @@
         <v>39</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>40</v>
@@ -9917,7 +9917,7 @@
         <v>51</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>160</v>
@@ -9926,7 +9926,7 @@
         <v>267</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10025,7 +10025,7 @@
         <v>39</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>368</v>
@@ -10432,7 +10432,7 @@
         <v>392</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>193</v>
@@ -10542,7 +10542,7 @@
         <v>400</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>39</v>
@@ -10760,7 +10760,7 @@
         <v>415</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>39</v>
@@ -11007,13 +11007,13 @@
         <v>39</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11064,7 +11064,7 @@
         <v>39</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>40</v>
@@ -11079,7 +11079,7 @@
         <v>39</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>39</v>
@@ -11113,7 +11113,7 @@
         <v>39</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>145</v>
@@ -11158,17 +11158,17 @@
         <v>39</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB88" s="2"/>
       <c r="AC88" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD88" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>40</v>
@@ -11276,7 +11276,7 @@
         <v>39</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>40</v>
@@ -11325,7 +11325,7 @@
         <v>51</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K90" t="s" s="2">
         <v>160</v>
@@ -11334,7 +11334,7 @@
         <v>267</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -11433,7 +11433,7 @@
         <v>39</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K91" t="s" s="2">
         <v>368</v>
@@ -11840,7 +11840,7 @@
         <v>392</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>193</v>
@@ -11950,7 +11950,7 @@
         <v>400</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>39</v>
@@ -12166,7 +12166,7 @@
         <v>415</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>39</v>
@@ -12413,13 +12413,13 @@
         <v>39</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -12470,7 +12470,7 @@
         <v>39</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>40</v>
@@ -12485,7 +12485,7 @@
         <v>39</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>39</v>
@@ -12519,7 +12519,7 @@
         <v>39</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K101" t="s" s="2">
         <v>145</v>
@@ -12564,17 +12564,17 @@
         <v>39</v>
       </c>
       <c r="AA101" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB101" s="2"/>
       <c r="AC101" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD101" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>40</v>
@@ -12682,7 +12682,7 @@
         <v>39</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>40</v>
@@ -12731,7 +12731,7 @@
         <v>51</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K103" t="s" s="2">
         <v>160</v>
@@ -12740,7 +12740,7 @@
         <v>267</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -12839,7 +12839,7 @@
         <v>39</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K104" t="s" s="2">
         <v>368</v>
@@ -13246,7 +13246,7 @@
         <v>392</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL107" t="s" s="2">
         <v>193</v>
@@ -13356,7 +13356,7 @@
         <v>400</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>39</v>
@@ -13572,7 +13572,7 @@
         <v>415</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>39</v>
@@ -13819,13 +13819,13 @@
         <v>39</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M113" s="2"/>
       <c r="N113" s="2"/>
@@ -13876,7 +13876,7 @@
         <v>39</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>40</v>
@@ -13891,7 +13891,7 @@
         <v>39</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>39</v>
@@ -13925,7 +13925,7 @@
         <v>39</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K114" t="s" s="2">
         <v>145</v>
@@ -13970,17 +13970,17 @@
         <v>39</v>
       </c>
       <c r="AA114" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB114" s="2"/>
       <c r="AC114" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD114" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>40</v>
@@ -14088,7 +14088,7 @@
         <v>39</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>40</v>
@@ -14137,7 +14137,7 @@
         <v>51</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K116" t="s" s="2">
         <v>160</v>
@@ -14146,7 +14146,7 @@
         <v>267</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
@@ -14245,7 +14245,7 @@
         <v>39</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K117" t="s" s="2">
         <v>368</v>
@@ -14652,7 +14652,7 @@
         <v>392</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>193</v>
@@ -14762,7 +14762,7 @@
         <v>400</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>39</v>
@@ -14978,7 +14978,7 @@
         <v>415</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>39</v>
@@ -15225,13 +15225,13 @@
         <v>39</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M126" s="2"/>
       <c r="N126" s="2"/>
@@ -15282,7 +15282,7 @@
         <v>39</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>40</v>
@@ -15297,7 +15297,7 @@
         <v>39</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>39</v>
@@ -15331,7 +15331,7 @@
         <v>39</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K127" t="s" s="2">
         <v>145</v>
@@ -15376,17 +15376,17 @@
         <v>39</v>
       </c>
       <c r="AA127" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB127" s="2"/>
       <c r="AC127" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD127" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>40</v>
@@ -15494,7 +15494,7 @@
         <v>39</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>40</v>
@@ -15543,7 +15543,7 @@
         <v>51</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K129" t="s" s="2">
         <v>160</v>
@@ -15552,7 +15552,7 @@
         <v>267</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
@@ -15651,7 +15651,7 @@
         <v>39</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K130" t="s" s="2">
         <v>368</v>
@@ -16058,7 +16058,7 @@
         <v>392</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>193</v>
@@ -16168,7 +16168,7 @@
         <v>400</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>39</v>
@@ -16384,7 +16384,7 @@
         <v>415</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL136" t="s" s="2">
         <v>39</v>

--- a/output/EventSummary/composition-es-1.xlsx
+++ b/output/EventSummary/composition-es-1.xlsx
@@ -1339,7 +1339,7 @@
     <t>Event Overview</t>
   </si>
   <si>
-    <t>It is expected that section.text is populated from the Encounter Description element of the Encounter entry.</t>
+    <t>Summary information concerning the event.</t>
   </si>
   <si>
     <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Event Details"/&gt;</t>
@@ -1399,7 +1399,7 @@
     <t>Medications</t>
   </si>
   <si>
-    <t>Medicines that the patient is currently taking including self-prescribed, clinician prescribed and nonprescription medication.</t>
+    <t>Information about medicines that are relevant to the encounter. The medicines included do not constitute a full medications list, but are those medicines that have specifically changed as a result of the encounter, or those medicines directly relevant to the encounter.</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
@@ -1466,7 +1466,7 @@
     <t>Immunisations</t>
   </si>
   <si>
-    <t>Information about the immunisation history, i.e. administered vaccines, of a patient.</t>
+    <t>Information about vaccinations administered or reported to be administered during this encounter. This may include statements that a patient has not had a particular vaccine administered.</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}

--- a/output/EventSummary/composition-es-1.xlsx
+++ b/output/EventSummary/composition-es-1.xlsx
@@ -306,7 +306,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
+    <t>A list of profiles (references to [StructureDefinition](https://build.fhir.org/ig/hl7au/au-fhir-base/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](https://build.fhir.org/ig/hl7au/au-fhir-base/).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>

--- a/output/EventSummary/composition-es-1.xlsx
+++ b/output/EventSummary/composition-es-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$150</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4664" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5108" uniqueCount="468">
   <si>
     <t>Path</t>
   </si>
@@ -1493,6 +1493,26 @@
   <si>
     <t>inv-dh-cmp-05:At least one statement of vaccine or an assertion that there is no history of immunisation shall be present, but not both {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Immunization).exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation ).exists())}
 inv-dh-cmp-11:This section shall contain at most one assertion of no relevant finding entry and it shall assert no previous immunisations {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is value and value.coding.code = '1234401000168109').exists())}</t>
+  </si>
+  <si>
+    <t>diagnosticInvestigations</t>
+  </si>
+  <si>
+    <t>Diagnostic Investigations (Editorial Note: The design of this section is incomplete. The intended structure of section.entry and section.emptyReason is not yet available.)</t>
+  </si>
+  <si>
+    <t>Information about diagnostic tests or procedures performed on or requested for an individual during this encounter, that are considered relevant to the individual's ongoing care. This does not include a full list of diagnostic tests and procedures performed on or request for the individual but only those that are relevant to the encounter.</t>
+  </si>
+  <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Diagnostic Investigations"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="30954-2"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
 </sst>
 </file>
@@ -1641,7 +1661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM137"/>
+  <dimension ref="A1:AM150"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1651,7 +1671,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.1328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.32421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.54296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1660,7 +1680,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="54.12109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="151.16796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -16498,8 +16518,1416 @@
         <v>39</v>
       </c>
     </row>
+    <row r="138">
+      <c r="A138" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B138" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="C138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D138" s="2"/>
+      <c r="E138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F138" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J138" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="K138" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L138" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M138" s="2"/>
+      <c r="N138" s="2"/>
+      <c r="O138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P138" s="2"/>
+      <c r="Q138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AF138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG138" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI138" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AJ138" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AK138" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AL138" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="139" hidden="true">
+      <c r="A139" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F139" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J139" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="M139" s="2"/>
+      <c r="N139" s="2"/>
+      <c r="O139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P139" s="2"/>
+      <c r="Q139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AF139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG139" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ139" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AK139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL139" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="140" hidden="true">
+      <c r="A140" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F140" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J140" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M140" s="2"/>
+      <c r="N140" s="2"/>
+      <c r="O140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P140" s="2"/>
+      <c r="Q140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB140" s="2"/>
+      <c r="AC140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG140" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL140" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="141" hidden="true">
+      <c r="A141" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B141" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="C141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F141" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M141" s="2"/>
+      <c r="N141" s="2"/>
+      <c r="O141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P141" s="2"/>
+      <c r="Q141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH141" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AI141" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AJ141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL141" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="142" hidden="true">
+      <c r="A142" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F142" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I142" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J142" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K142" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="N142" s="2"/>
+      <c r="O142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P142" s="2"/>
+      <c r="Q142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AF142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ142" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL142" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="D143" s="2"/>
+      <c r="E143" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F143" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J143" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K143" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="M143" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N143" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="O143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P143" s="2"/>
+      <c r="Q143" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="R143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE143" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AF143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG143" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ143" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AK143" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AL143" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F144" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J144" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K144" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M144" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="N144" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="O144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P144" s="2"/>
+      <c r="Q144" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="R144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W144" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="X144" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="Y144" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="Z144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AF144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AK144" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AL144" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D145" s="2"/>
+      <c r="E145" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F145" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G145" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I145" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J145" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K145" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L145" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="N145" s="2"/>
+      <c r="O145" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P145" s="2"/>
+      <c r="Q145" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R145" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S145" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T145" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U145" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V145" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W145" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X145" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y145" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z145" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA145" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB145" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC145" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD145" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE145" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AF145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG145" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH145" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AI145" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ145" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AK145" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AL145" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="146" hidden="true">
+      <c r="A146" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F146" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G146" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I146" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J146" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K146" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L146" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M146" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N146" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="O146" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P146" s="2"/>
+      <c r="Q146" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="R146" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S146" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T146" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U146" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V146" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W146" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="X146" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="Y146" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AF146" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG146" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH146" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI146" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ146" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AK146" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AL146" t="s" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="147" hidden="true">
+      <c r="A147" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F147" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J147" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K147" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L147" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N147" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="O147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P147" s="2"/>
+      <c r="Q147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W147" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="X147" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Y147" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="Z147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE147" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG147" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ147" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AK147" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AL147" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="148" hidden="true">
+      <c r="A148" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B148" s="2"/>
+      <c r="C148" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D148" s="2"/>
+      <c r="E148" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F148" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G148" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H148" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I148" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J148" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="K148" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L148" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M148" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="N148" s="2"/>
+      <c r="O148" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P148" s="2"/>
+      <c r="Q148" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R148" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S148" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T148" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U148" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V148" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W148" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X148" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y148" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z148" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA148" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB148" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC148" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD148" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE148" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AF148" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG148" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH148" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AI148" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ148" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AK148" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AL148" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="149" hidden="true">
+      <c r="A149" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="B149" s="2"/>
+      <c r="C149" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D149" s="2"/>
+      <c r="E149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F149" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G149" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I149" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J149" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K149" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N149" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="O149" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P149" s="2"/>
+      <c r="Q149" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R149" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S149" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T149" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U149" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V149" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W149" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="X149" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="Y149" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="Z149" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA149" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE149" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AF149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG149" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH149" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AI149" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ149" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AK149" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AL149" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="150" hidden="true">
+      <c r="A150" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B150" s="2"/>
+      <c r="C150" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D150" s="2"/>
+      <c r="E150" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F150" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G150" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H150" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I150" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J150" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K150" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L150" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="N150" s="2"/>
+      <c r="O150" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P150" s="2"/>
+      <c r="Q150" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R150" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S150" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T150" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U150" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V150" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W150" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X150" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y150" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z150" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA150" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE150" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AF150" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG150" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH150" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AI150" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ150" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AK150" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AL150" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AL137">
+  <autoFilter ref="A1:AL150">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -16509,7 +17937,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI136">
+  <conditionalFormatting sqref="A2:AI149">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/EventSummary/composition-es-1.xlsx
+++ b/output/EventSummary/composition-es-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5108" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5108" uniqueCount="464">
   <si>
     <t>Path</t>
   </si>
@@ -146,7 +146,7 @@
     <t>Event Summary</t>
   </si>
   <si>
-    <t>An event summary authored by a nominated provider, that contains key pieces of information about an individual’s health status and is useful to a wide range of providers in assessing individuals and delivering care.</t>
+    <t>A record, reported by a healthcare provider, of a significant healthcare event involving the individual and that is useful to a wide range of providers in assessing individuals and delivering care.</t>
   </si>
   <si>
     <t>While the focus of this specification is on patient-specific clinical statements, this resource can also apply to other healthcare-related statements such as study protocol designs, healthcare invoices and other activities that are not necessarily patient-specific or clinical.</t>
@@ -1336,7 +1336,7 @@
     <t>eventOverview</t>
   </si>
   <si>
-    <t>Event Overview</t>
+    <t>Event overview</t>
   </si>
   <si>
     <t>Summary information concerning the event.</t>
@@ -1365,11 +1365,11 @@
     <t>Allergies</t>
   </si>
   <si>
-    <t>Information about allergies and intolerances of the patient. This includes statements that a patient does not have an allergy or category of allergies.</t>
+    <t>Information about allergies or intolerances identified or reported during this encounter. This may include statements that a patient does not have an allergy or category of allergies.</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-07:The section shall at least have one entry or an empty reason, but not both {Composition.section.where($this is entry).exists() xor Composition.section.where($this is emptyReason).exists()}</t>
+cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-07:The section shall at least have one entry or an empty reason, but not both {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '48765-2').entry.exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '48765-2').emptyReason.exists()}</t>
   </si>
   <si>
     <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Allergies and Adverse Reactions"/&gt;</t>
@@ -1403,7 +1403,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-08:The section shall at least have one entry or an empty reason, but not both {Composition.section.where($this is entry).exists() xor Composition.section.where($this is emptyReason).exists()}</t>
+cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-03:If present, the assertion of no relevant finding entry shall assert no known current medications {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '10160-0').exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '10160-0').entry.resolve().where($this is List).exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '10160-0').entry.resolve().where($this is Observation ).exists())}inv-dh-cmp-08:The section shall at least have one entry or an empty reason, but not both {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '10160-0').entry.exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '10160-0').emptyReason.exists()}</t>
   </si>
   <si>
     <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medications"/&gt;</t>
@@ -1421,24 +1421,20 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">inv-dh-cmp-03:A list of medication changes from this event or an assertion that there are no current medications shall be present, but not both {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '10160-0').exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '10160-0').entry.resolve().where($this is List).exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '10160-0').entry.resolve().where($this is Observation ).exists())}
-</t>
-  </si>
-  <si>
     <t>medicalHistory</t>
   </si>
   <si>
-    <t>Medical History</t>
+    <t>Medical history</t>
   </si>
   <si>
     <t>Information about the problems, diagnoses and medical or surgical procedures of a patient. This can include statements that a patient does not have a particular condition.</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-09:The section shall at least have one entry or an empty reason, but not both {Composition.section.where($this is entry).exists() xor Composition.section.where($this is emptyReason).exists()}</t>
-  </si>
-  <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Diagnoses/Interventions"/&gt;</t>
+cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-04:This section shall not contain both summary statement of medical history entries (condition or procedure) and assertion of no relevant finding entries {Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is value and value.coding.code = '1224831000168103').exists())}inv-dh-cmp-09:The section shall at least have one entry or an empty reason, but not both {Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.exists() xor Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').emptyReason.exists()}inv-dh-cmp-12:This section shall contain at most one assertion of no relevant finding entry and it shall assert no relevant medical history {Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is value and value.coding.code = '1224831000168103').exists())}</t>
+  </si>
+  <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medical History"/&gt;</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1453,13 +1449,6 @@
 </t>
   </si>
   <si>
-    <t>Medical history</t>
-  </si>
-  <si>
-    <t>inv-dh-cmp-04:At least one condition or procedure shall be present, or an assertion that there is no history shall be present, but not both {Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is value and value.coding.code = '1224831000168103').exists())}
-inv-dh-cmp-12:This section shall contain at most one assertion of no relevant finding entry and it shall assert no relevant medical history {Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is value and value.coding.code = '1224831000168103').exists())}</t>
-  </si>
-  <si>
     <t>immunisations</t>
   </si>
   <si>
@@ -1470,7 +1459,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-10:The section shall at least have one entry or an empty reason, but not both {Composition.section.where($this is entry).exists() xor Composition.section.where($this is emptyReason).exists()}</t>
+cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-05:This section shall not contain both summary statement of vaccine entries and assertion of no relevant finding entries {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Immunization).exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation ).exists())}inv-dh-cmp-10:The section shall at least have one entry or an empty reason, but not both {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').emptyReason.exists()}inv-dh-cmp-11:This section shall contain at most one assertion of no relevant finding entry and it shall assert either no history of vaccination or no vaccine administered during encounter {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is value and value.coding.code = '1234401000168109').exists())}</t>
   </si>
   <si>
     <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Immunisations"/&gt;</t>
@@ -1489,10 +1478,6 @@
   </si>
   <si>
     <t>Administered and/or non-administered vaccines</t>
-  </si>
-  <si>
-    <t>inv-dh-cmp-05:At least one statement of vaccine or an assertion that there is no history of immunisation shall be present, but not both {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Immunization).exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation ).exists())}
-inv-dh-cmp-11:This section shall contain at most one assertion of no relevant finding entry and it shall assert no previous immunisations {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is value and value.coding.code = '1234401000168109').exists())}</t>
   </si>
   <si>
     <t>diagnosticInvestigations</t>
@@ -13478,7 +13463,7 @@
         <v>405</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>444</v>
+        <v>39</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>406</v>
@@ -13711,7 +13696,7 @@
         <v>352</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>39</v>
@@ -13736,10 +13721,10 @@
         <v>250</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L112" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -13802,7 +13787,7 @@
         <v>39</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>357</v>
@@ -14284,7 +14269,7 @@
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="R117" t="s" s="2">
         <v>39</v>
@@ -14394,7 +14379,7 @@
       </c>
       <c r="P118" s="2"/>
       <c r="Q118" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="R118" t="s" s="2">
         <v>39</v>
@@ -14813,10 +14798,10 @@
         <v>39</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="L122" t="s" s="2">
         <v>403</v>
@@ -14884,7 +14869,7 @@
         <v>405</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>453</v>
+        <v>39</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>406</v>
@@ -15117,7 +15102,7 @@
         <v>352</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C125" t="s" s="2">
         <v>39</v>
@@ -15142,10 +15127,10 @@
         <v>250</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -15208,7 +15193,7 @@
         <v>39</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>357</v>
@@ -15690,7 +15675,7 @@
       </c>
       <c r="P130" s="2"/>
       <c r="Q130" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="R130" t="s" s="2">
         <v>39</v>
@@ -15800,7 +15785,7 @@
       </c>
       <c r="P131" s="2"/>
       <c r="Q131" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="R131" t="s" s="2">
         <v>39</v>
@@ -16219,10 +16204,10 @@
         <v>39</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L135" t="s" s="2">
         <v>403</v>
@@ -16290,7 +16275,7 @@
         <v>405</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>462</v>
+        <v>39</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>406</v>
@@ -16523,7 +16508,7 @@
         <v>352</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C138" t="s" s="2">
         <v>39</v>
@@ -16548,10 +16533,10 @@
         <v>250</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -17096,7 +17081,7 @@
       </c>
       <c r="P143" s="2"/>
       <c r="Q143" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="R143" t="s" s="2">
         <v>39</v>
@@ -17206,7 +17191,7 @@
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="R144" t="s" s="2">
         <v>39</v>

--- a/output/EventSummary/composition-es-1.xlsx
+++ b/output/EventSummary/composition-es-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5108" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5108" uniqueCount="461">
   <si>
     <t>Path</t>
   </si>
@@ -174,7 +174,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -193,7 +193,7 @@
     <t>Composition.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -213,7 +213,7 @@
     <t>Composition.meta.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -236,7 +236,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -280,7 +280,7 @@
     <t>Composition.meta.lastUpdated</t>
   </si>
   <si>
-    <t xml:space="preserve">instant {[]} {[]}
+    <t xml:space="preserve">instant
 </t>
   </si>
   <si>
@@ -299,7 +299,7 @@
     <t>Composition.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -318,7 +318,7 @@
     <t>Composition.meta.security</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -386,7 +386,7 @@
     <t>Composition.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -399,7 +399,7 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="en-AU"/&gt;</t>
+    <t>en-AU</t>
   </si>
   <si>
     <t>A human language.</t>
@@ -418,7 +418,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -448,7 +448,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -482,7 +482,7 @@
     <t>compositionAuthorRole</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/composition-author-role]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/composition-author-role}
 </t>
   </si>
   <si>
@@ -503,7 +503,7 @@
     <t>informationRecipient</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/information-recipient]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/information-recipient}
 </t>
   </si>
   <si>
@@ -532,7 +532,7 @@
     <t>Composition.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -588,7 +588,7 @@
     <t>Composition.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -657,7 +657,7 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1)
 </t>
   </si>
   <si>
@@ -685,7 +685,7 @@
     <t>Composition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/encounter-es-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/encounter-es-1)
 </t>
   </si>
   <si>
@@ -710,7 +710,7 @@
     <t>Composition.date</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -738,7 +738,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-ident-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-ident-1)
 </t>
   </si>
   <si>
@@ -803,7 +803,7 @@
     <t>Composition.attester</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -842,7 +842,7 @@
     <t>attesterRelatedParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/attester-related-party]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/attester-related-party}
 </t>
   </si>
   <si>
@@ -913,7 +913,7 @@
     <t>Composition.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Patient|Practitioner|Organization)
 </t>
   </si>
   <si>
@@ -941,13 +941,10 @@
     <t>Legal attester</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="legal"/&gt;</t>
-  </si>
-  <si>
     <t>Composition.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-ident-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-ident-1)
 </t>
   </si>
   <si>
@@ -1027,8 +1024,8 @@
     <t>Composition.relatesTo.target[x]</t>
   </si>
   <si>
-    <t>Identifier {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Composition]]}</t>
+    <t>Identifier
+Reference(Composition)</t>
   </si>
   <si>
     <t>Target of the relationship</t>
@@ -1094,7 +1091,7 @@
     <t>Composition.event.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -1107,7 +1104,7 @@
     <t>Composition.event.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -1152,7 +1149,7 @@
     <t>sectionAuthor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/section-author]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/section-author}
 </t>
   </si>
   <si>
@@ -1342,7 +1339,7 @@
     <t>Summary information concerning the event.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Event Details"/&gt;</t>
+    <t>Event Details</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1353,7 +1350,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="snapshot"/&gt;</t>
+    <t>snapshot</t>
   </si>
   <si>
     <t>Encounter summary</t>
@@ -1372,7 +1369,7 @@
 cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-07:The section shall at least have one entry or an empty reason, but not both {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '48765-2').entry.exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '48765-2').emptyReason.exists()}</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Allergies and Adverse Reactions"/&gt;</t>
+    <t>Allergies and Adverse Reactions</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1383,7 +1380,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/allergyintolerance-summary-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/allergyintolerance-summary-1)
 </t>
   </si>
   <si>
@@ -1404,9 +1401,6 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
 cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-03:If present, the assertion of no relevant finding entry shall assert no known current medications {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '10160-0').exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '10160-0').entry.resolve().where($this is List).exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '10160-0').entry.resolve().where($this is Observation ).exists())}inv-dh-cmp-08:The section shall at least have one entry or an empty reason, but not both {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '10160-0').entry.exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '10160-0').emptyReason.exists()}</t>
-  </si>
-  <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medications"/&gt;</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1417,7 +1411,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/list-medseventchanges-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/list-medseventchanges-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1)
 </t>
   </si>
   <si>
@@ -1434,7 +1428,7 @@
 cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-04:This section shall not contain both summary statement of medical history entries (condition or procedure) and assertion of no relevant finding entries {Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is value and value.coding.code = '1224831000168103').exists())}inv-dh-cmp-09:The section shall at least have one entry or an empty reason, but not both {Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.exists() xor Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').emptyReason.exists()}inv-dh-cmp-12:This section shall contain at most one assertion of no relevant finding entry and it shall assert no relevant medical history {Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is value and value.coding.code = '1224831000168103').exists())}</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medical History"/&gt;</t>
+    <t>Medical History</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1445,7 +1439,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/condition-summary-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/procedure-summary-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/condition-summary-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/procedure-summary-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1)
 </t>
   </si>
   <si>
@@ -1460,9 +1454,6 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
 cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-05:This section shall not contain both summary statement of vaccine entries and assertion of no relevant finding entries {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Immunization).exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation ).exists())}inv-dh-cmp-10:The section shall at least have one entry or an empty reason, but not both {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').emptyReason.exists()}inv-dh-cmp-11:This section shall contain at most one assertion of no relevant finding entry and it shall assert either no history of vaccination or no vaccine administered during encounter {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is value and value.coding.code = '1234401000168109').exists())}</t>
-  </si>
-  <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Immunisations"/&gt;</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1473,7 +1464,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/immunization-summary-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/immunization-summary-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1)
 </t>
   </si>
   <si>
@@ -1489,7 +1480,7 @@
     <t>Information about diagnostic tests or procedures performed on or requested for an individual during this encounter, that are considered relevant to the individual's ongoing care. This does not include a full list of diagnostic tests and procedures performed on or request for the individual but only those that are relevant to the encounter.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Diagnostic Investigations"/&gt;</t>
+    <t>Diagnostic Investigations</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1550,67 +1541,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1646,7 +1637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM150"/>
+  <dimension ref="A1:AL150"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6279,7 +6270,7 @@
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>39</v>
@@ -6563,7 +6554,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6586,19 +6577,19 @@
         <v>51</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>39</v>
@@ -6647,7 +6638,7 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -6662,10 +6653,10 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>39</v>
@@ -6673,7 +6664,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6699,13 +6690,13 @@
         <v>250</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6755,7 +6746,7 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -6767,13 +6758,13 @@
         <v>39</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AJ47" t="s" s="2">
+      <c r="AK47" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>39</v>
@@ -6781,7 +6772,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6887,7 +6878,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6995,7 +6986,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7103,7 +7094,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7129,13 +7120,13 @@
         <v>119</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7164,46 +7155,46 @@
         <v>176</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="Y51" t="s" s="2">
+      <c r="Z51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
+      <c r="AK51" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>39</v>
@@ -7211,7 +7202,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7234,13 +7225,13 @@
         <v>51</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7291,7 +7282,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>50</v>
@@ -7306,10 +7297,10 @@
         <v>39</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>39</v>
@@ -7317,7 +7308,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7343,16 +7334,16 @@
         <v>250</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>39</v>
@@ -7401,7 +7392,7 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -7413,13 +7404,13 @@
         <v>39</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>39</v>
@@ -7427,7 +7418,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7533,7 +7524,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7641,7 +7632,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7749,7 +7740,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7775,13 +7766,13 @@
         <v>182</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7810,11 +7801,11 @@
         <v>109</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="Z57" t="s" s="2">
         <v>39</v>
       </c>
@@ -7831,7 +7822,7 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7857,7 +7848,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7880,13 +7871,13 @@
         <v>51</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7937,7 +7928,7 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -7963,7 +7954,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7986,13 +7977,13 @@
         <v>51</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8043,7 +8034,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -8058,7 +8049,7 @@
         <v>39</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>68</v>
@@ -8069,7 +8060,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8095,10 +8086,10 @@
         <v>250</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8137,7 +8128,7 @@
         <v>39</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
@@ -8147,7 +8138,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -8159,13 +8150,13 @@
         <v>39</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AJ60" t="s" s="2">
+      <c r="AK60" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>39</v>
@@ -8173,7 +8164,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8279,7 +8270,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8383,10 +8374,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B63" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>39</v>
@@ -8408,13 +8399,13 @@
         <v>39</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8491,7 +8482,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8599,11 +8590,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8625,16 +8616,16 @@
         <v>64</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>39</v>
@@ -8683,7 +8674,7 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
@@ -8709,7 +8700,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8735,16 +8726,16 @@
         <v>182</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>39</v>
@@ -8772,11 +8763,11 @@
         <v>109</v>
       </c>
       <c r="X66" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Y66" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Y66" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="Z66" t="s" s="2">
         <v>39</v>
       </c>
@@ -8793,7 +8784,7 @@
         <v>39</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
@@ -8819,7 +8810,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8845,13 +8836,13 @@
         <v>129</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8901,7 +8892,7 @@
         <v>39</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
@@ -8910,16 +8901,16 @@
         <v>50</v>
       </c>
       <c r="AH67" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AI67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="AK67" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>39</v>
@@ -8927,7 +8918,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8953,16 +8944,16 @@
         <v>119</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>39</v>
@@ -8990,43 +8981,43 @@
         <v>176</v>
       </c>
       <c r="X68" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Y68" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Y68" t="s" s="2">
+      <c r="Z68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>68</v>
@@ -9037,7 +9028,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9063,16 +9054,16 @@
         <v>182</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>39</v>
@@ -9100,43 +9091,43 @@
         <v>188</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y69" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y69" t="s" s="2">
+      <c r="Z69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>68</v>
@@ -9147,7 +9138,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9170,16 +9161,16 @@
         <v>39</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9229,7 +9220,7 @@
         <v>39</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
@@ -9238,16 +9229,16 @@
         <v>41</v>
       </c>
       <c r="AH70" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AI70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
+      <c r="AK70" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>39</v>
@@ -9255,7 +9246,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9281,16 +9272,16 @@
         <v>182</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>39</v>
@@ -9318,43 +9309,43 @@
         <v>188</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="Y71" t="s" s="2">
+      <c r="Z71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>68</v>
@@ -9365,7 +9356,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9391,13 +9382,13 @@
         <v>39</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9447,7 +9438,7 @@
         <v>39</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>40</v>
@@ -9456,16 +9447,16 @@
         <v>41</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>39</v>
@@ -9473,10 +9464,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>39</v>
@@ -9501,10 +9492,10 @@
         <v>250</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9555,7 +9546,7 @@
         <v>39</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>40</v>
@@ -9567,13 +9558,13 @@
         <v>39</v>
       </c>
       <c r="AI73" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AJ73" t="s" s="2">
+      <c r="AK73" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>39</v>
@@ -9581,7 +9572,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9687,7 +9678,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9791,10 +9782,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B76" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>39</v>
@@ -9816,13 +9807,13 @@
         <v>39</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="L76" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9899,7 +9890,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10007,11 +9998,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10033,23 +10024,23 @@
         <v>64</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>39</v>
@@ -10091,7 +10082,7 @@
         <v>39</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
@@ -10117,7 +10108,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10143,23 +10134,23 @@
         <v>182</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>39</v>
@@ -10180,11 +10171,11 @@
         <v>109</v>
       </c>
       <c r="X79" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Y79" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Y79" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="Z79" t="s" s="2">
         <v>39</v>
       </c>
@@ -10201,7 +10192,7 @@
         <v>39</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>40</v>
@@ -10227,7 +10218,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10253,13 +10244,13 @@
         <v>129</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10309,7 +10300,7 @@
         <v>39</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>40</v>
@@ -10318,16 +10309,16 @@
         <v>50</v>
       </c>
       <c r="AH80" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AI80" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="AK80" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>39</v>
@@ -10335,7 +10326,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10361,23 +10352,23 @@
         <v>119</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R81" t="s" s="2">
         <v>39</v>
@@ -10398,43 +10389,43 @@
         <v>176</v>
       </c>
       <c r="X81" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Y81" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Y81" t="s" s="2">
+      <c r="Z81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>68</v>
@@ -10445,7 +10436,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10471,16 +10462,16 @@
         <v>182</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>39</v>
@@ -10508,43 +10499,43 @@
         <v>188</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y82" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y82" t="s" s="2">
+      <c r="Z82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>68</v>
@@ -10555,7 +10546,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10581,13 +10572,13 @@
         <v>212</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -10637,7 +10628,7 @@
         <v>39</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>40</v>
@@ -10646,16 +10637,16 @@
         <v>41</v>
       </c>
       <c r="AH83" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AI83" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
+      <c r="AK83" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>39</v>
@@ -10663,7 +10654,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10689,16 +10680,16 @@
         <v>182</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>39</v>
@@ -10726,43 +10717,43 @@
         <v>188</v>
       </c>
       <c r="X84" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="Y84" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="Y84" t="s" s="2">
+      <c r="Z84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>68</v>
@@ -10773,7 +10764,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10799,13 +10790,13 @@
         <v>39</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -10855,7 +10846,7 @@
         <v>39</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
@@ -10864,16 +10855,16 @@
         <v>41</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>39</v>
@@ -10881,10 +10872,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>39</v>
@@ -10909,10 +10900,10 @@
         <v>250</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10963,7 +10954,7 @@
         <v>39</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>40</v>
@@ -10975,13 +10966,13 @@
         <v>39</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AJ86" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AK86" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>39</v>
@@ -10989,7 +10980,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11095,7 +11086,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11199,10 +11190,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B89" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="C89" t="s" s="2">
         <v>39</v>
@@ -11224,13 +11215,13 @@
         <v>39</v>
       </c>
       <c r="J89" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K89" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="K89" t="s" s="2">
+      <c r="L89" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11307,7 +11298,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11415,11 +11406,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11441,23 +11432,23 @@
         <v>64</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>39</v>
@@ -11499,7 +11490,7 @@
         <v>39</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>40</v>
@@ -11525,7 +11516,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11551,23 +11542,23 @@
         <v>182</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="R92" t="s" s="2">
         <v>39</v>
@@ -11588,11 +11579,11 @@
         <v>109</v>
       </c>
       <c r="X92" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Y92" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Y92" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="Z92" t="s" s="2">
         <v>39</v>
       </c>
@@ -11609,7 +11600,7 @@
         <v>39</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>40</v>
@@ -11635,7 +11626,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11661,13 +11652,13 @@
         <v>129</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -11717,7 +11708,7 @@
         <v>39</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>40</v>
@@ -11726,16 +11717,16 @@
         <v>50</v>
       </c>
       <c r="AH93" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AI93" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="AK93" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>39</v>
@@ -11743,7 +11734,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11769,23 +11760,23 @@
         <v>119</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R94" t="s" s="2">
         <v>39</v>
@@ -11806,43 +11797,43 @@
         <v>176</v>
       </c>
       <c r="X94" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Y94" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Y94" t="s" s="2">
+      <c r="Z94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>68</v>
@@ -11853,7 +11844,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11879,16 +11870,16 @@
         <v>182</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>39</v>
@@ -11916,43 +11907,43 @@
         <v>188</v>
       </c>
       <c r="X95" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y95" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y95" t="s" s="2">
+      <c r="Z95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>68</v>
@@ -11963,7 +11954,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -11986,16 +11977,16 @@
         <v>39</v>
       </c>
       <c r="J96" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="K96" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="K96" t="s" s="2">
-        <v>435</v>
-      </c>
       <c r="L96" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -12045,7 +12036,7 @@
         <v>39</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>40</v>
@@ -12054,16 +12045,16 @@
         <v>41</v>
       </c>
       <c r="AH96" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AI96" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
+      <c r="AK96" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>39</v>
@@ -12071,7 +12062,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12097,16 +12088,16 @@
         <v>182</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>39</v>
@@ -12135,7 +12126,7 @@
       </c>
       <c r="X97" s="2"/>
       <c r="Y97" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>39</v>
@@ -12153,7 +12144,7 @@
         <v>39</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>40</v>
@@ -12162,13 +12153,13 @@
         <v>50</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>68</v>
@@ -12179,7 +12170,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12205,13 +12196,13 @@
         <v>39</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -12261,7 +12252,7 @@
         <v>39</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>40</v>
@@ -12270,16 +12261,16 @@
         <v>41</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>39</v>
@@ -12287,10 +12278,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C99" t="s" s="2">
         <v>39</v>
@@ -12315,10 +12306,10 @@
         <v>250</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -12369,7 +12360,7 @@
         <v>39</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>40</v>
@@ -12381,13 +12372,13 @@
         <v>39</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AJ99" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AK99" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>39</v>
@@ -12395,7 +12386,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12501,7 +12492,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12605,10 +12596,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B102" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="C102" t="s" s="2">
         <v>39</v>
@@ -12630,13 +12621,13 @@
         <v>39</v>
       </c>
       <c r="J102" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K102" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="K102" t="s" s="2">
+      <c r="L102" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12713,7 +12704,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12821,11 +12812,11 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -12847,23 +12838,23 @@
         <v>64</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L104" t="s" s="2">
+      <c r="M104" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="R104" t="s" s="2">
         <v>39</v>
@@ -12905,7 +12896,7 @@
         <v>39</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>40</v>
@@ -12931,7 +12922,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12957,23 +12948,23 @@
         <v>182</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="M105" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="R105" t="s" s="2">
         <v>39</v>
@@ -12994,11 +12985,11 @@
         <v>109</v>
       </c>
       <c r="X105" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Y105" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Y105" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="Z105" t="s" s="2">
         <v>39</v>
       </c>
@@ -13015,7 +13006,7 @@
         <v>39</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>40</v>
@@ -13041,7 +13032,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13067,13 +13058,13 @@
         <v>129</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -13123,7 +13114,7 @@
         <v>39</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>40</v>
@@ -13132,16 +13123,16 @@
         <v>50</v>
       </c>
       <c r="AH106" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AI106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="AK106" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>39</v>
@@ -13149,7 +13140,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13175,23 +13166,23 @@
         <v>119</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L107" t="s" s="2">
+      <c r="M107" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M107" t="s" s="2">
+      <c r="N107" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R107" t="s" s="2">
         <v>39</v>
@@ -13212,43 +13203,43 @@
         <v>176</v>
       </c>
       <c r="X107" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Y107" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Y107" t="s" s="2">
+      <c r="Z107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>68</v>
@@ -13259,7 +13250,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13285,16 +13276,16 @@
         <v>182</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L108" t="s" s="2">
+      <c r="M108" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="N108" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>39</v>
@@ -13322,43 +13313,43 @@
         <v>188</v>
       </c>
       <c r="X108" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y108" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y108" t="s" s="2">
+      <c r="Z108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>68</v>
@@ -13369,7 +13360,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13392,16 +13383,16 @@
         <v>39</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
@@ -13451,7 +13442,7 @@
         <v>39</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>40</v>
@@ -13460,16 +13451,16 @@
         <v>41</v>
       </c>
       <c r="AH109" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AI109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
+      <c r="AK109" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>39</v>
@@ -13477,7 +13468,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13503,16 +13494,16 @@
         <v>182</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L110" t="s" s="2">
+      <c r="M110" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>39</v>
@@ -13541,7 +13532,7 @@
       </c>
       <c r="X110" s="2"/>
       <c r="Y110" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>39</v>
@@ -13559,7 +13550,7 @@
         <v>39</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>40</v>
@@ -13568,13 +13559,13 @@
         <v>50</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>68</v>
@@ -13585,7 +13576,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13611,13 +13602,13 @@
         <v>39</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L111" t="s" s="2">
+      <c r="M111" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -13667,7 +13658,7 @@
         <v>39</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>40</v>
@@ -13676,16 +13667,16 @@
         <v>41</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>39</v>
@@ -13693,10 +13684,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>39</v>
@@ -13721,10 +13712,10 @@
         <v>250</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -13775,7 +13766,7 @@
         <v>39</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>40</v>
@@ -13787,13 +13778,13 @@
         <v>39</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AJ112" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AK112" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>39</v>
@@ -13801,7 +13792,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13907,7 +13898,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14011,10 +14002,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B115" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="C115" t="s" s="2">
         <v>39</v>
@@ -14036,13 +14027,13 @@
         <v>39</v>
       </c>
       <c r="J115" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K115" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="K115" t="s" s="2">
+      <c r="L115" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -14119,7 +14110,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14227,11 +14218,11 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -14253,23 +14244,23 @@
         <v>64</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L117" t="s" s="2">
+      <c r="M117" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="R117" t="s" s="2">
         <v>39</v>
@@ -14311,7 +14302,7 @@
         <v>39</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>40</v>
@@ -14337,7 +14328,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14363,23 +14354,23 @@
         <v>182</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L118" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L118" t="s" s="2">
+      <c r="M118" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M118" t="s" s="2">
+      <c r="N118" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P118" s="2"/>
       <c r="Q118" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="R118" t="s" s="2">
         <v>39</v>
@@ -14400,11 +14391,11 @@
         <v>109</v>
       </c>
       <c r="X118" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Y118" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Y118" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="Z118" t="s" s="2">
         <v>39</v>
       </c>
@@ -14421,7 +14412,7 @@
         <v>39</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>40</v>
@@ -14447,7 +14438,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14473,13 +14464,13 @@
         <v>129</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L119" t="s" s="2">
+      <c r="M119" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
@@ -14529,7 +14520,7 @@
         <v>39</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>40</v>
@@ -14538,16 +14529,16 @@
         <v>50</v>
       </c>
       <c r="AH119" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AI119" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="AK119" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>39</v>
@@ -14555,7 +14546,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14581,23 +14572,23 @@
         <v>119</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L120" t="s" s="2">
+      <c r="M120" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R120" t="s" s="2">
         <v>39</v>
@@ -14618,43 +14609,43 @@
         <v>176</v>
       </c>
       <c r="X120" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Y120" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Y120" t="s" s="2">
+      <c r="Z120" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>68</v>
@@ -14665,7 +14656,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14691,16 +14682,16 @@
         <v>182</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L121" t="s" s="2">
+      <c r="M121" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>39</v>
@@ -14728,43 +14719,43 @@
         <v>188</v>
       </c>
       <c r="X121" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y121" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y121" t="s" s="2">
+      <c r="Z121" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>68</v>
@@ -14775,7 +14766,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -14798,16 +14789,16 @@
         <v>39</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
@@ -14857,7 +14848,7 @@
         <v>39</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>40</v>
@@ -14866,16 +14857,16 @@
         <v>41</v>
       </c>
       <c r="AH122" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AI122" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
+      <c r="AK122" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>39</v>
@@ -14883,7 +14874,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -14909,16 +14900,16 @@
         <v>182</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L123" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L123" t="s" s="2">
+      <c r="M123" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M123" t="s" s="2">
+      <c r="N123" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>39</v>
@@ -14947,7 +14938,7 @@
       </c>
       <c r="X123" s="2"/>
       <c r="Y123" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>39</v>
@@ -14965,7 +14956,7 @@
         <v>39</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>40</v>
@@ -14974,13 +14965,13 @@
         <v>50</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>68</v>
@@ -14991,7 +14982,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15017,13 +15008,13 @@
         <v>39</v>
       </c>
       <c r="K124" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L124" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L124" t="s" s="2">
+      <c r="M124" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -15073,7 +15064,7 @@
         <v>39</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>40</v>
@@ -15082,16 +15073,16 @@
         <v>41</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>39</v>
@@ -15099,10 +15090,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C125" t="s" s="2">
         <v>39</v>
@@ -15127,10 +15118,10 @@
         <v>250</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -15181,7 +15172,7 @@
         <v>39</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>40</v>
@@ -15193,13 +15184,13 @@
         <v>39</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AJ125" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AK125" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>39</v>
@@ -15207,7 +15198,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15313,7 +15304,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15417,10 +15408,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B128" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="B128" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="C128" t="s" s="2">
         <v>39</v>
@@ -15442,13 +15433,13 @@
         <v>39</v>
       </c>
       <c r="J128" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K128" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="K128" t="s" s="2">
+      <c r="L128" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -15525,7 +15516,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -15633,11 +15624,11 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -15659,23 +15650,23 @@
         <v>64</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L130" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L130" t="s" s="2">
+      <c r="M130" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P130" s="2"/>
       <c r="Q130" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="R130" t="s" s="2">
         <v>39</v>
@@ -15717,7 +15708,7 @@
         <v>39</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>40</v>
@@ -15743,7 +15734,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -15769,23 +15760,23 @@
         <v>182</v>
       </c>
       <c r="K131" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L131" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L131" t="s" s="2">
+      <c r="M131" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M131" t="s" s="2">
+      <c r="N131" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P131" s="2"/>
       <c r="Q131" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="R131" t="s" s="2">
         <v>39</v>
@@ -15806,11 +15797,11 @@
         <v>109</v>
       </c>
       <c r="X131" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Y131" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Y131" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="Z131" t="s" s="2">
         <v>39</v>
       </c>
@@ -15827,7 +15818,7 @@
         <v>39</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>40</v>
@@ -15853,7 +15844,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -15879,13 +15870,13 @@
         <v>129</v>
       </c>
       <c r="K132" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L132" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L132" t="s" s="2">
+      <c r="M132" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
@@ -15935,7 +15926,7 @@
         <v>39</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>40</v>
@@ -15944,16 +15935,16 @@
         <v>50</v>
       </c>
       <c r="AH132" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AI132" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ132" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AI132" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ132" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="AK132" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>39</v>
@@ -15961,7 +15952,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -15987,23 +15978,23 @@
         <v>119</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L133" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L133" t="s" s="2">
+      <c r="M133" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M133" t="s" s="2">
+      <c r="N133" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P133" s="2"/>
       <c r="Q133" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R133" t="s" s="2">
         <v>39</v>
@@ -16024,43 +16015,43 @@
         <v>176</v>
       </c>
       <c r="X133" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Y133" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Y133" t="s" s="2">
+      <c r="Z133" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AF133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG133" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH133" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI133" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ133" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG133" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH133" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI133" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ133" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AK133" t="s" s="2">
         <v>68</v>
@@ -16071,7 +16062,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -16097,16 +16088,16 @@
         <v>182</v>
       </c>
       <c r="K134" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L134" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L134" t="s" s="2">
+      <c r="M134" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M134" t="s" s="2">
+      <c r="N134" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>39</v>
@@ -16134,43 +16125,43 @@
         <v>188</v>
       </c>
       <c r="X134" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y134" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y134" t="s" s="2">
+      <c r="Z134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE134" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG134" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ134" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AF134" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>68</v>
@@ -16181,7 +16172,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16204,16 +16195,16 @@
         <v>39</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
@@ -16263,7 +16254,7 @@
         <v>39</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>40</v>
@@ -16272,16 +16263,16 @@
         <v>41</v>
       </c>
       <c r="AH135" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AI135" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ135" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AI135" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ135" t="s" s="2">
+      <c r="AK135" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>39</v>
@@ -16289,7 +16280,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16315,16 +16306,16 @@
         <v>182</v>
       </c>
       <c r="K136" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L136" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L136" t="s" s="2">
+      <c r="M136" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M136" t="s" s="2">
+      <c r="N136" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>39</v>
@@ -16353,7 +16344,7 @@
       </c>
       <c r="X136" s="2"/>
       <c r="Y136" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>39</v>
@@ -16371,7 +16362,7 @@
         <v>39</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>40</v>
@@ -16380,13 +16371,13 @@
         <v>50</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>68</v>
@@ -16397,7 +16388,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -16423,13 +16414,13 @@
         <v>39</v>
       </c>
       <c r="K137" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L137" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L137" t="s" s="2">
+      <c r="M137" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
@@ -16479,7 +16470,7 @@
         <v>39</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>40</v>
@@ -16488,16 +16479,16 @@
         <v>41</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AI137" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>39</v>
@@ -16505,10 +16496,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C138" t="s" s="2">
         <v>39</v>
@@ -16533,10 +16524,10 @@
         <v>250</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -16587,7 +16578,7 @@
         <v>39</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>40</v>
@@ -16599,13 +16590,13 @@
         <v>39</v>
       </c>
       <c r="AI138" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AJ138" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AJ138" t="s" s="2">
+      <c r="AK138" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AK138" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AL138" t="s" s="2">
         <v>39</v>
@@ -16613,7 +16604,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -16719,7 +16710,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -16823,10 +16814,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B141" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="B141" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="C141" t="s" s="2">
         <v>39</v>
@@ -16848,13 +16839,13 @@
         <v>39</v>
       </c>
       <c r="J141" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K141" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="K141" t="s" s="2">
+      <c r="L141" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -16931,7 +16922,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17039,11 +17030,11 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -17065,23 +17056,23 @@
         <v>64</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L143" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L143" t="s" s="2">
+      <c r="M143" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M143" t="s" s="2">
+      <c r="N143" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P143" s="2"/>
       <c r="Q143" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="R143" t="s" s="2">
         <v>39</v>
@@ -17123,7 +17114,7 @@
         <v>39</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>40</v>
@@ -17149,7 +17140,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17175,23 +17166,23 @@
         <v>182</v>
       </c>
       <c r="K144" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L144" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L144" t="s" s="2">
+      <c r="M144" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M144" t="s" s="2">
+      <c r="N144" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="R144" t="s" s="2">
         <v>39</v>
@@ -17212,11 +17203,11 @@
         <v>109</v>
       </c>
       <c r="X144" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Y144" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Y144" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="Z144" t="s" s="2">
         <v>39</v>
       </c>
@@ -17233,7 +17224,7 @@
         <v>39</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>40</v>
@@ -17259,7 +17250,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -17285,13 +17276,13 @@
         <v>129</v>
       </c>
       <c r="K145" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L145" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L145" t="s" s="2">
+      <c r="M145" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
@@ -17341,7 +17332,7 @@
         <v>39</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>40</v>
@@ -17350,16 +17341,16 @@
         <v>50</v>
       </c>
       <c r="AH145" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AI145" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ145" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AI145" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ145" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="AK145" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AL145" t="s" s="2">
         <v>39</v>
@@ -17367,7 +17358,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -17393,23 +17384,23 @@
         <v>119</v>
       </c>
       <c r="K146" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L146" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L146" t="s" s="2">
+      <c r="M146" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M146" t="s" s="2">
+      <c r="N146" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P146" s="2"/>
       <c r="Q146" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R146" t="s" s="2">
         <v>39</v>
@@ -17430,43 +17421,43 @@
         <v>176</v>
       </c>
       <c r="X146" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Y146" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Y146" t="s" s="2">
+      <c r="Z146" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AF146" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG146" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH146" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI146" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ146" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="Z146" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA146" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB146" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC146" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD146" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE146" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AF146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG146" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH146" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI146" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ146" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>68</v>
@@ -17477,7 +17468,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -17503,16 +17494,16 @@
         <v>182</v>
       </c>
       <c r="K147" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L147" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L147" t="s" s="2">
+      <c r="M147" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M147" t="s" s="2">
+      <c r="N147" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>39</v>
@@ -17540,43 +17531,43 @@
         <v>188</v>
       </c>
       <c r="X147" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y147" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y147" t="s" s="2">
+      <c r="Z147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE147" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG147" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ147" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="Z147" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA147" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB147" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC147" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD147" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE147" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AF147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG147" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH147" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI147" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ147" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>68</v>
@@ -17587,7 +17578,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -17610,16 +17601,16 @@
         <v>39</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K148" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L148" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L148" t="s" s="2">
+      <c r="M148" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
@@ -17669,7 +17660,7 @@
         <v>39</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>40</v>
@@ -17678,16 +17669,16 @@
         <v>41</v>
       </c>
       <c r="AH148" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AI148" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ148" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AI148" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ148" t="s" s="2">
+      <c r="AK148" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AK148" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>39</v>
@@ -17695,7 +17686,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -17721,16 +17712,16 @@
         <v>182</v>
       </c>
       <c r="K149" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L149" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L149" t="s" s="2">
+      <c r="M149" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M149" t="s" s="2">
+      <c r="N149" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>39</v>
@@ -17758,43 +17749,43 @@
         <v>188</v>
       </c>
       <c r="X149" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="Y149" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="Y149" t="s" s="2">
+      <c r="Z149" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA149" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE149" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AF149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG149" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH149" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AI149" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ149" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="Z149" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA149" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC149" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD149" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE149" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AF149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG149" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH149" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AI149" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ149" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>68</v>
@@ -17805,7 +17796,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -17831,13 +17822,13 @@
         <v>39</v>
       </c>
       <c r="K150" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L150" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L150" t="s" s="2">
+      <c r="M150" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
@@ -17887,7 +17878,7 @@
         <v>39</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>40</v>
@@ -17896,16 +17887,16 @@
         <v>41</v>
       </c>
       <c r="AH150" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AI150" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AL150" t="s" s="2">
         <v>39</v>

--- a/output/EventSummary/composition-es-1.xlsx
+++ b/output/EventSummary/composition-es-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5108" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5108" uniqueCount="464">
   <si>
     <t>Path</t>
   </si>
@@ -174,7 +174,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">id {[]} {[]}
 </t>
   </si>
   <si>
@@ -193,7 +193,7 @@
     <t>Composition.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta
+    <t xml:space="preserve">Meta {[]} {[]}
 </t>
   </si>
   <si>
@@ -213,7 +213,7 @@
     <t>Composition.meta.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
@@ -236,7 +236,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t xml:space="preserve">Extension {[]} {[]}
 </t>
   </si>
   <si>
@@ -280,7 +280,7 @@
     <t>Composition.meta.lastUpdated</t>
   </si>
   <si>
-    <t xml:space="preserve">instant
+    <t xml:space="preserve">instant {[]} {[]}
 </t>
   </si>
   <si>
@@ -299,7 +299,7 @@
     <t>Composition.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">uri
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
@@ -318,7 +318,7 @@
     <t>Composition.meta.security</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
+    <t xml:space="preserve">Coding {[]} {[]}
 </t>
   </si>
   <si>
@@ -386,7 +386,7 @@
     <t>Composition.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code
+    <t xml:space="preserve">code {[]} {[]}
 </t>
   </si>
   <si>
@@ -399,7 +399,7 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>en-AU</t>
+    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="en-AU"/&gt;</t>
   </si>
   <si>
     <t>A human language.</t>
@@ -418,7 +418,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative
+    <t xml:space="preserve">Narrative {[]} {[]}
 </t>
   </si>
   <si>
@@ -448,7 +448,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource
+    <t xml:space="preserve">Resource {[]} {[]}
 </t>
   </si>
   <si>
@@ -482,7 +482,7 @@
     <t>compositionAuthorRole</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/composition-author-role}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/composition-author-role]]} {[]}
 </t>
   </si>
   <si>
@@ -503,7 +503,7 @@
     <t>informationRecipient</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/information-recipient}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/information-recipient]]} {[]}
 </t>
   </si>
   <si>
@@ -532,7 +532,7 @@
     <t>Composition.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {[]} {[]}
 </t>
   </si>
   <si>
@@ -588,7 +588,7 @@
     <t>Composition.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
 </t>
   </si>
   <si>
@@ -657,7 +657,7 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1]]}
 </t>
   </si>
   <si>
@@ -685,7 +685,7 @@
     <t>Composition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/encounter-es-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/encounter-es-1]]}
 </t>
   </si>
   <si>
@@ -710,7 +710,7 @@
     <t>Composition.date</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
+    <t xml:space="preserve">dateTime {[]} {[]}
 </t>
   </si>
   <si>
@@ -738,7 +738,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-ident-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-ident-1]]}
 </t>
   </si>
   <si>
@@ -803,7 +803,7 @@
     <t>Composition.attester</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement
+    <t xml:space="preserve">BackboneElement {[]} {[]}
 </t>
   </si>
   <si>
@@ -842,7 +842,7 @@
     <t>attesterRelatedParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/attester-related-party}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/attester-related-party]]} {[]}
 </t>
   </si>
   <si>
@@ -913,7 +913,7 @@
     <t>Composition.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|Organization)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
 </t>
   </si>
   <si>
@@ -941,10 +941,13 @@
     <t>Legal attester</t>
   </si>
   <si>
+    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="legal"/&gt;</t>
+  </si>
+  <si>
     <t>Composition.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-ident-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-ident-1]]}
 </t>
   </si>
   <si>
@@ -1024,8 +1027,8 @@
     <t>Composition.relatesTo.target[x]</t>
   </si>
   <si>
-    <t>Identifier
-Reference(Composition)</t>
+    <t>Identifier {[]} {[]}
+Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Composition]]}</t>
   </si>
   <si>
     <t>Target of the relationship</t>
@@ -1091,7 +1094,7 @@
     <t>Composition.event.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
+    <t xml:space="preserve">Period {[]} {[]}
 </t>
   </si>
   <si>
@@ -1104,7 +1107,7 @@
     <t>Composition.event.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
 </t>
   </si>
   <si>
@@ -1149,7 +1152,7 @@
     <t>sectionAuthor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/section-author}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/section-author]]} {[]}
 </t>
   </si>
   <si>
@@ -1339,7 +1342,7 @@
     <t>Summary information concerning the event.</t>
   </si>
   <si>
-    <t>Event Details</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Event Details"/&gt;</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1350,7 +1353,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>snapshot</t>
+    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="snapshot"/&gt;</t>
   </si>
   <si>
     <t>Encounter summary</t>
@@ -1369,7 +1372,7 @@
 cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-07:The section shall at least have one entry or an empty reason, but not both {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '48765-2').entry.exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '48765-2').emptyReason.exists()}</t>
   </si>
   <si>
-    <t>Allergies and Adverse Reactions</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Allergies and Adverse Reactions"/&gt;</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1380,7 +1383,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/allergyintolerance-summary-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/allergyintolerance-summary-1]]}
 </t>
   </si>
   <si>
@@ -1401,6 +1404,9 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
 cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-03:If present, the assertion of no relevant finding entry shall assert no known current medications {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '10160-0').exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '10160-0').entry.resolve().where($this is List).exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '10160-0').entry.resolve().where($this is Observation ).exists())}inv-dh-cmp-08:The section shall at least have one entry or an empty reason, but not both {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '10160-0').entry.exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '10160-0').emptyReason.exists()}</t>
+  </si>
+  <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medications"/&gt;</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1411,7 +1417,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/list-medseventchanges-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/list-medseventchanges-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1]]}
 </t>
   </si>
   <si>
@@ -1428,7 +1434,7 @@
 cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-04:This section shall not contain both summary statement of medical history entries (condition or procedure) and assertion of no relevant finding entries {Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is value and value.coding.code = '1224831000168103').exists())}inv-dh-cmp-09:The section shall at least have one entry or an empty reason, but not both {Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.exists() xor Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').emptyReason.exists()}inv-dh-cmp-12:This section shall contain at most one assertion of no relevant finding entry and it shall assert no relevant medical history {Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is value and value.coding.code = '1224831000168103').exists())}</t>
   </si>
   <si>
-    <t>Medical History</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medical History"/&gt;</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1439,7 +1445,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/condition-summary-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/procedure-summary-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/condition-summary-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/procedure-summary-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1]]}
 </t>
   </si>
   <si>
@@ -1454,6 +1460,9 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
 cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-05:This section shall not contain both summary statement of vaccine entries and assertion of no relevant finding entries {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Immunization).exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation ).exists())}inv-dh-cmp-10:The section shall at least have one entry or an empty reason, but not both {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').emptyReason.exists()}inv-dh-cmp-11:This section shall contain at most one assertion of no relevant finding entry and it shall assert either no history of vaccination or no vaccine administered during encounter {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is value and value.coding.code = '1234401000168109').exists())}</t>
+  </si>
+  <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Immunisations"/&gt;</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1464,7 +1473,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/immunization-summary-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/immunization-summary-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1]]}
 </t>
   </si>
   <si>
@@ -1480,7 +1489,7 @@
     <t>Information about diagnostic tests or procedures performed on or requested for an individual during this encounter, that are considered relevant to the individual's ongoing care. This does not include a full list of diagnostic tests and procedures performed on or request for the individual but only those that are relevant to the encounter.</t>
   </si>
   <si>
-    <t>Diagnostic Investigations</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Diagnostic Investigations"/&gt;</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1541,67 +1550,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
   </borders>
@@ -1637,7 +1646,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL150"/>
+  <dimension ref="A1:AM150"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6270,7 +6279,7 @@
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>39</v>
@@ -6554,7 +6563,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6577,19 +6586,19 @@
         <v>51</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>39</v>
@@ -6638,7 +6647,7 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -6653,10 +6662,10 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>39</v>
@@ -6664,7 +6673,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6690,13 +6699,13 @@
         <v>250</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6746,7 +6755,7 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -6758,13 +6767,13 @@
         <v>39</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>39</v>
@@ -6772,7 +6781,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6878,7 +6887,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6986,7 +6995,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7094,7 +7103,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7120,13 +7129,13 @@
         <v>119</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7155,10 +7164,10 @@
         <v>176</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>39</v>
@@ -7176,7 +7185,7 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>50</v>
@@ -7191,10 +7200,10 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>39</v>
@@ -7202,7 +7211,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7225,13 +7234,13 @@
         <v>51</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7282,7 +7291,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>50</v>
@@ -7297,10 +7306,10 @@
         <v>39</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>39</v>
@@ -7308,7 +7317,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7334,16 +7343,16 @@
         <v>250</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>39</v>
@@ -7392,7 +7401,7 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -7404,13 +7413,13 @@
         <v>39</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>39</v>
@@ -7418,7 +7427,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7524,7 +7533,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7632,7 +7641,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7740,7 +7749,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7766,13 +7775,13 @@
         <v>182</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7801,10 +7810,10 @@
         <v>109</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>39</v>
@@ -7822,7 +7831,7 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7848,7 +7857,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7871,13 +7880,13 @@
         <v>51</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7928,7 +7937,7 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -7954,7 +7963,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7977,13 +7986,13 @@
         <v>51</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8034,7 +8043,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -8049,7 +8058,7 @@
         <v>39</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>68</v>
@@ -8060,7 +8069,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8086,10 +8095,10 @@
         <v>250</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8128,7 +8137,7 @@
         <v>39</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
@@ -8138,7 +8147,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -8150,13 +8159,13 @@
         <v>39</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>39</v>
@@ -8164,7 +8173,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8270,7 +8279,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8374,10 +8383,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>39</v>
@@ -8399,13 +8408,13 @@
         <v>39</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8482,7 +8491,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8590,11 +8599,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8616,16 +8625,16 @@
         <v>64</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>39</v>
@@ -8674,7 +8683,7 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
@@ -8700,7 +8709,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8726,16 +8735,16 @@
         <v>182</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>39</v>
@@ -8763,10 +8772,10 @@
         <v>109</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>39</v>
@@ -8784,7 +8793,7 @@
         <v>39</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
@@ -8810,7 +8819,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8836,13 +8845,13 @@
         <v>129</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8892,7 +8901,7 @@
         <v>39</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
@@ -8901,16 +8910,16 @@
         <v>50</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>39</v>
@@ -8918,7 +8927,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8944,16 +8953,16 @@
         <v>119</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>39</v>
@@ -8981,10 +8990,10 @@
         <v>176</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>39</v>
@@ -9002,7 +9011,7 @@
         <v>39</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
@@ -9017,7 +9026,7 @@
         <v>39</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>68</v>
@@ -9028,7 +9037,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9054,16 +9063,16 @@
         <v>182</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>39</v>
@@ -9091,10 +9100,10 @@
         <v>188</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>39</v>
@@ -9112,7 +9121,7 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -9127,7 +9136,7 @@
         <v>39</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>68</v>
@@ -9138,7 +9147,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9161,16 +9170,16 @@
         <v>39</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9220,7 +9229,7 @@
         <v>39</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
@@ -9229,16 +9238,16 @@
         <v>41</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>39</v>
@@ -9246,7 +9255,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9272,16 +9281,16 @@
         <v>182</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>39</v>
@@ -9309,10 +9318,10 @@
         <v>188</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>39</v>
@@ -9330,7 +9339,7 @@
         <v>39</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>40</v>
@@ -9339,13 +9348,13 @@
         <v>50</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>68</v>
@@ -9356,7 +9365,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9382,13 +9391,13 @@
         <v>39</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9438,7 +9447,7 @@
         <v>39</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>40</v>
@@ -9447,16 +9456,16 @@
         <v>41</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>39</v>
@@ -9464,10 +9473,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>39</v>
@@ -9492,10 +9501,10 @@
         <v>250</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9546,7 +9555,7 @@
         <v>39</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>40</v>
@@ -9558,13 +9567,13 @@
         <v>39</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>39</v>
@@ -9572,7 +9581,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9678,7 +9687,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9782,10 +9791,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>39</v>
@@ -9807,13 +9816,13 @@
         <v>39</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9890,7 +9899,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9998,11 +10007,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10024,23 +10033,23 @@
         <v>64</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>39</v>
@@ -10082,7 +10091,7 @@
         <v>39</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
@@ -10108,7 +10117,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10134,23 +10143,23 @@
         <v>182</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>39</v>
@@ -10171,10 +10180,10 @@
         <v>109</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>39</v>
@@ -10192,7 +10201,7 @@
         <v>39</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>40</v>
@@ -10218,7 +10227,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10244,13 +10253,13 @@
         <v>129</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10300,7 +10309,7 @@
         <v>39</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>40</v>
@@ -10309,16 +10318,16 @@
         <v>50</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>39</v>
@@ -10326,7 +10335,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10352,23 +10361,23 @@
         <v>119</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="R81" t="s" s="2">
         <v>39</v>
@@ -10389,10 +10398,10 @@
         <v>176</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>39</v>
@@ -10410,7 +10419,7 @@
         <v>39</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>40</v>
@@ -10425,7 +10434,7 @@
         <v>39</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>68</v>
@@ -10436,7 +10445,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10462,16 +10471,16 @@
         <v>182</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>39</v>
@@ -10499,10 +10508,10 @@
         <v>188</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>39</v>
@@ -10520,7 +10529,7 @@
         <v>39</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>40</v>
@@ -10535,7 +10544,7 @@
         <v>39</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>68</v>
@@ -10546,7 +10555,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10572,13 +10581,13 @@
         <v>212</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -10628,7 +10637,7 @@
         <v>39</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>40</v>
@@ -10637,16 +10646,16 @@
         <v>41</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>39</v>
@@ -10654,7 +10663,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10680,16 +10689,16 @@
         <v>182</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>39</v>
@@ -10717,10 +10726,10 @@
         <v>188</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>39</v>
@@ -10738,7 +10747,7 @@
         <v>39</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
@@ -10747,13 +10756,13 @@
         <v>50</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>68</v>
@@ -10764,7 +10773,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10790,13 +10799,13 @@
         <v>39</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -10846,7 +10855,7 @@
         <v>39</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
@@ -10855,16 +10864,16 @@
         <v>41</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>39</v>
@@ -10872,10 +10881,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>39</v>
@@ -10900,10 +10909,10 @@
         <v>250</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10954,7 +10963,7 @@
         <v>39</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>40</v>
@@ -10966,13 +10975,13 @@
         <v>39</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>39</v>
@@ -10980,7 +10989,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11086,7 +11095,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11190,10 +11199,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C89" t="s" s="2">
         <v>39</v>
@@ -11215,13 +11224,13 @@
         <v>39</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11298,7 +11307,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11406,11 +11415,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11432,23 +11441,23 @@
         <v>64</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>39</v>
@@ -11490,7 +11499,7 @@
         <v>39</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>40</v>
@@ -11516,7 +11525,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11542,23 +11551,23 @@
         <v>182</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="R92" t="s" s="2">
         <v>39</v>
@@ -11579,10 +11588,10 @@
         <v>109</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>39</v>
@@ -11600,7 +11609,7 @@
         <v>39</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>40</v>
@@ -11626,7 +11635,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11652,13 +11661,13 @@
         <v>129</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -11708,7 +11717,7 @@
         <v>39</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>40</v>
@@ -11717,16 +11726,16 @@
         <v>50</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>39</v>
@@ -11734,7 +11743,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11760,23 +11769,23 @@
         <v>119</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="R94" t="s" s="2">
         <v>39</v>
@@ -11797,10 +11806,10 @@
         <v>176</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>39</v>
@@ -11818,7 +11827,7 @@
         <v>39</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>40</v>
@@ -11833,7 +11842,7 @@
         <v>39</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>68</v>
@@ -11844,7 +11853,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11870,16 +11879,16 @@
         <v>182</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>39</v>
@@ -11907,10 +11916,10 @@
         <v>188</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>39</v>
@@ -11928,7 +11937,7 @@
         <v>39</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>40</v>
@@ -11943,7 +11952,7 @@
         <v>39</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>68</v>
@@ -11954,7 +11963,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -11977,16 +11986,16 @@
         <v>39</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -12036,7 +12045,7 @@
         <v>39</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>40</v>
@@ -12045,16 +12054,16 @@
         <v>41</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>39</v>
@@ -12062,7 +12071,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12088,16 +12097,16 @@
         <v>182</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>39</v>
@@ -12126,7 +12135,7 @@
       </c>
       <c r="X97" s="2"/>
       <c r="Y97" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>39</v>
@@ -12144,7 +12153,7 @@
         <v>39</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>40</v>
@@ -12153,13 +12162,13 @@
         <v>50</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>68</v>
@@ -12170,7 +12179,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12196,13 +12205,13 @@
         <v>39</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -12252,7 +12261,7 @@
         <v>39</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>40</v>
@@ -12261,16 +12270,16 @@
         <v>41</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>39</v>
@@ -12278,10 +12287,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C99" t="s" s="2">
         <v>39</v>
@@ -12306,10 +12315,10 @@
         <v>250</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -12360,7 +12369,7 @@
         <v>39</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>40</v>
@@ -12372,13 +12381,13 @@
         <v>39</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>39</v>
@@ -12386,7 +12395,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12492,7 +12501,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12596,10 +12605,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C102" t="s" s="2">
         <v>39</v>
@@ -12621,13 +12630,13 @@
         <v>39</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12704,7 +12713,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12812,11 +12821,11 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -12838,23 +12847,23 @@
         <v>64</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="R104" t="s" s="2">
         <v>39</v>
@@ -12896,7 +12905,7 @@
         <v>39</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>40</v>
@@ -12922,7 +12931,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12948,23 +12957,23 @@
         <v>182</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="R105" t="s" s="2">
         <v>39</v>
@@ -12985,10 +12994,10 @@
         <v>109</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>39</v>
@@ -13006,7 +13015,7 @@
         <v>39</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>40</v>
@@ -13032,7 +13041,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13058,13 +13067,13 @@
         <v>129</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -13114,7 +13123,7 @@
         <v>39</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>40</v>
@@ -13123,16 +13132,16 @@
         <v>50</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>39</v>
@@ -13140,7 +13149,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13166,23 +13175,23 @@
         <v>119</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="R107" t="s" s="2">
         <v>39</v>
@@ -13203,10 +13212,10 @@
         <v>176</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>39</v>
@@ -13224,7 +13233,7 @@
         <v>39</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>40</v>
@@ -13239,7 +13248,7 @@
         <v>39</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>68</v>
@@ -13250,7 +13259,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13276,16 +13285,16 @@
         <v>182</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>39</v>
@@ -13313,10 +13322,10 @@
         <v>188</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>39</v>
@@ -13334,7 +13343,7 @@
         <v>39</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>40</v>
@@ -13349,7 +13358,7 @@
         <v>39</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>68</v>
@@ -13360,7 +13369,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13383,16 +13392,16 @@
         <v>39</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
@@ -13442,7 +13451,7 @@
         <v>39</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>40</v>
@@ -13451,16 +13460,16 @@
         <v>41</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>39</v>
@@ -13468,7 +13477,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13494,16 +13503,16 @@
         <v>182</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>39</v>
@@ -13532,7 +13541,7 @@
       </c>
       <c r="X110" s="2"/>
       <c r="Y110" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>39</v>
@@ -13550,7 +13559,7 @@
         <v>39</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>40</v>
@@ -13559,13 +13568,13 @@
         <v>50</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>68</v>
@@ -13576,7 +13585,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13602,13 +13611,13 @@
         <v>39</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -13658,7 +13667,7 @@
         <v>39</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>40</v>
@@ -13667,16 +13676,16 @@
         <v>41</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>39</v>
@@ -13684,10 +13693,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>39</v>
@@ -13712,10 +13721,10 @@
         <v>250</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -13766,7 +13775,7 @@
         <v>39</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>40</v>
@@ -13778,13 +13787,13 @@
         <v>39</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>39</v>
@@ -13792,7 +13801,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13898,7 +13907,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14002,10 +14011,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C115" t="s" s="2">
         <v>39</v>
@@ -14027,13 +14036,13 @@
         <v>39</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -14110,7 +14119,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14218,11 +14227,11 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -14244,23 +14253,23 @@
         <v>64</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="R117" t="s" s="2">
         <v>39</v>
@@ -14302,7 +14311,7 @@
         <v>39</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>40</v>
@@ -14328,7 +14337,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14354,23 +14363,23 @@
         <v>182</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P118" s="2"/>
       <c r="Q118" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="R118" t="s" s="2">
         <v>39</v>
@@ -14391,10 +14400,10 @@
         <v>109</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z118" t="s" s="2">
         <v>39</v>
@@ -14412,7 +14421,7 @@
         <v>39</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>40</v>
@@ -14438,7 +14447,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14464,13 +14473,13 @@
         <v>129</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
@@ -14520,7 +14529,7 @@
         <v>39</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>40</v>
@@ -14529,16 +14538,16 @@
         <v>50</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>39</v>
@@ -14546,7 +14555,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14572,23 +14581,23 @@
         <v>119</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="R120" t="s" s="2">
         <v>39</v>
@@ -14609,10 +14618,10 @@
         <v>176</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>39</v>
@@ -14630,7 +14639,7 @@
         <v>39</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>40</v>
@@ -14645,7 +14654,7 @@
         <v>39</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>68</v>
@@ -14656,7 +14665,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14682,16 +14691,16 @@
         <v>182</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>39</v>
@@ -14719,10 +14728,10 @@
         <v>188</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>39</v>
@@ -14740,7 +14749,7 @@
         <v>39</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>40</v>
@@ -14755,7 +14764,7 @@
         <v>39</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>68</v>
@@ -14766,7 +14775,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -14789,16 +14798,16 @@
         <v>39</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
@@ -14848,7 +14857,7 @@
         <v>39</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>40</v>
@@ -14857,16 +14866,16 @@
         <v>41</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>39</v>
@@ -14874,7 +14883,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -14900,16 +14909,16 @@
         <v>182</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>39</v>
@@ -14938,7 +14947,7 @@
       </c>
       <c r="X123" s="2"/>
       <c r="Y123" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>39</v>
@@ -14956,7 +14965,7 @@
         <v>39</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>40</v>
@@ -14965,13 +14974,13 @@
         <v>50</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>68</v>
@@ -14982,7 +14991,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15008,13 +15017,13 @@
         <v>39</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -15064,7 +15073,7 @@
         <v>39</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>40</v>
@@ -15073,16 +15082,16 @@
         <v>41</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>39</v>
@@ -15090,10 +15099,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C125" t="s" s="2">
         <v>39</v>
@@ -15118,10 +15127,10 @@
         <v>250</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -15172,7 +15181,7 @@
         <v>39</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>40</v>
@@ -15184,13 +15193,13 @@
         <v>39</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>39</v>
@@ -15198,7 +15207,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15304,7 +15313,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15408,10 +15417,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C128" t="s" s="2">
         <v>39</v>
@@ -15433,13 +15442,13 @@
         <v>39</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -15516,7 +15525,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -15624,11 +15633,11 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -15650,23 +15659,23 @@
         <v>64</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N130" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P130" s="2"/>
       <c r="Q130" t="s" s="2">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="R130" t="s" s="2">
         <v>39</v>
@@ -15708,7 +15717,7 @@
         <v>39</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>40</v>
@@ -15734,7 +15743,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -15760,23 +15769,23 @@
         <v>182</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N131" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P131" s="2"/>
       <c r="Q131" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="R131" t="s" s="2">
         <v>39</v>
@@ -15797,10 +15806,10 @@
         <v>109</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>39</v>
@@ -15818,7 +15827,7 @@
         <v>39</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>40</v>
@@ -15844,7 +15853,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -15870,13 +15879,13 @@
         <v>129</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
@@ -15926,7 +15935,7 @@
         <v>39</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>40</v>
@@ -15935,16 +15944,16 @@
         <v>50</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>39</v>
@@ -15952,7 +15961,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -15978,23 +15987,23 @@
         <v>119</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P133" s="2"/>
       <c r="Q133" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="R133" t="s" s="2">
         <v>39</v>
@@ -16015,10 +16024,10 @@
         <v>176</v>
       </c>
       <c r="X133" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Y133" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z133" t="s" s="2">
         <v>39</v>
@@ -16036,7 +16045,7 @@
         <v>39</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>40</v>
@@ -16051,7 +16060,7 @@
         <v>39</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AK133" t="s" s="2">
         <v>68</v>
@@ -16062,7 +16071,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -16088,16 +16097,16 @@
         <v>182</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>39</v>
@@ -16125,10 +16134,10 @@
         <v>188</v>
       </c>
       <c r="X134" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Z134" t="s" s="2">
         <v>39</v>
@@ -16146,7 +16155,7 @@
         <v>39</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>40</v>
@@ -16161,7 +16170,7 @@
         <v>39</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>68</v>
@@ -16172,7 +16181,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16195,16 +16204,16 @@
         <v>39</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
@@ -16254,7 +16263,7 @@
         <v>39</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>40</v>
@@ -16263,16 +16272,16 @@
         <v>41</v>
       </c>
       <c r="AH135" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AI135" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ135" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>39</v>
@@ -16280,7 +16289,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16306,16 +16315,16 @@
         <v>182</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>39</v>
@@ -16344,7 +16353,7 @@
       </c>
       <c r="X136" s="2"/>
       <c r="Y136" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>39</v>
@@ -16362,7 +16371,7 @@
         <v>39</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>40</v>
@@ -16371,13 +16380,13 @@
         <v>50</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>68</v>
@@ -16388,7 +16397,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -16414,13 +16423,13 @@
         <v>39</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
@@ -16470,7 +16479,7 @@
         <v>39</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>40</v>
@@ -16479,16 +16488,16 @@
         <v>41</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AI137" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>39</v>
@@ -16496,10 +16505,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="C138" t="s" s="2">
         <v>39</v>
@@ -16524,10 +16533,10 @@
         <v>250</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -16578,7 +16587,7 @@
         <v>39</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>40</v>
@@ -16590,13 +16599,13 @@
         <v>39</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL138" t="s" s="2">
         <v>39</v>
@@ -16604,7 +16613,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -16710,7 +16719,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -16814,10 +16823,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C141" t="s" s="2">
         <v>39</v>
@@ -16839,13 +16848,13 @@
         <v>39</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -16922,7 +16931,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17030,11 +17039,11 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -17056,23 +17065,23 @@
         <v>64</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P143" s="2"/>
       <c r="Q143" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="R143" t="s" s="2">
         <v>39</v>
@@ -17114,7 +17123,7 @@
         <v>39</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>40</v>
@@ -17140,7 +17149,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17166,23 +17175,23 @@
         <v>182</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="R144" t="s" s="2">
         <v>39</v>
@@ -17203,10 +17212,10 @@
         <v>109</v>
       </c>
       <c r="X144" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Y144" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z144" t="s" s="2">
         <v>39</v>
@@ -17224,7 +17233,7 @@
         <v>39</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>40</v>
@@ -17250,7 +17259,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -17276,13 +17285,13 @@
         <v>129</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
@@ -17332,7 +17341,7 @@
         <v>39</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>40</v>
@@ -17341,16 +17350,16 @@
         <v>50</v>
       </c>
       <c r="AH145" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AI145" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL145" t="s" s="2">
         <v>39</v>
@@ -17358,7 +17367,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -17384,23 +17393,23 @@
         <v>119</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P146" s="2"/>
       <c r="Q146" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="R146" t="s" s="2">
         <v>39</v>
@@ -17421,10 +17430,10 @@
         <v>176</v>
       </c>
       <c r="X146" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Z146" t="s" s="2">
         <v>39</v>
@@ -17442,7 +17451,7 @@
         <v>39</v>
       </c>
       <c r="AE146" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AF146" t="s" s="2">
         <v>40</v>
@@ -17457,7 +17466,7 @@
         <v>39</v>
       </c>
       <c r="AJ146" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>68</v>
@@ -17468,7 +17477,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -17494,16 +17503,16 @@
         <v>182</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>39</v>
@@ -17531,10 +17540,10 @@
         <v>188</v>
       </c>
       <c r="X147" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Z147" t="s" s="2">
         <v>39</v>
@@ -17552,7 +17561,7 @@
         <v>39</v>
       </c>
       <c r="AE147" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF147" t="s" s="2">
         <v>40</v>
@@ -17567,7 +17576,7 @@
         <v>39</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>68</v>
@@ -17578,7 +17587,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -17601,16 +17610,16 @@
         <v>39</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
@@ -17660,7 +17669,7 @@
         <v>39</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>40</v>
@@ -17669,16 +17678,16 @@
         <v>41</v>
       </c>
       <c r="AH148" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AI148" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ148" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>39</v>
@@ -17686,7 +17695,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -17712,16 +17721,16 @@
         <v>182</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>39</v>
@@ -17749,10 +17758,10 @@
         <v>188</v>
       </c>
       <c r="X149" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Y149" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Z149" t="s" s="2">
         <v>39</v>
@@ -17770,7 +17779,7 @@
         <v>39</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>40</v>
@@ -17779,13 +17788,13 @@
         <v>50</v>
       </c>
       <c r="AH149" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AI149" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ149" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>68</v>
@@ -17796,7 +17805,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -17822,13 +17831,13 @@
         <v>39</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
@@ -17878,7 +17887,7 @@
         <v>39</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>40</v>
@@ -17887,16 +17896,16 @@
         <v>41</v>
       </c>
       <c r="AH150" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AI150" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AL150" t="s" s="2">
         <v>39</v>

--- a/output/EventSummary/composition-es-1.xlsx
+++ b/output/EventSummary/composition-es-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5108" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5108" uniqueCount="461">
   <si>
     <t>Path</t>
   </si>
@@ -174,7 +174,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -193,7 +193,7 @@
     <t>Composition.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -213,7 +213,7 @@
     <t>Composition.meta.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -236,7 +236,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -280,7 +280,7 @@
     <t>Composition.meta.lastUpdated</t>
   </si>
   <si>
-    <t xml:space="preserve">instant {[]} {[]}
+    <t xml:space="preserve">instant
 </t>
   </si>
   <si>
@@ -299,14 +299,14 @@
     <t>Composition.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](https://build.fhir.org/ig/hl7au/au-fhir-base/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](https://build.fhir.org/ig/hl7au/au-fhir-base/).</t>
+    <t>A list of profiles (references to [StructureDefinition](https://build.fhir.org/ig/hl7au/au-fhir-base-stu3/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](https://build.fhir.org/ig/hl7au/au-fhir-base-stu3/).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -318,7 +318,7 @@
     <t>Composition.meta.security</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -386,7 +386,7 @@
     <t>Composition.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -399,7 +399,7 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="en-AU"/&gt;</t>
+    <t>en-AU</t>
   </si>
   <si>
     <t>A human language.</t>
@@ -418,7 +418,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -448,7 +448,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -482,7 +482,7 @@
     <t>compositionAuthorRole</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/composition-author-role]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/composition-author-role}
 </t>
   </si>
   <si>
@@ -497,13 +497,13 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-cmp-02:A practitioner role shall conform to PractitionerRole with Practitioner with Mandatory Identifier {Composition.extension('http://hl7.org.au/fhir/StructureDefinition/composition-author-role').resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-withpractitionerident-1')}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-cmp-02:A practitioner role shall conform to PractitionerRole with Practitioner with Mandatory Identifier {Composition.extension('http://hl7.org.au/fhir/StructureDefinition/composition-author-role').resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-withpractitionerident-1')}</t>
   </si>
   <si>
     <t>informationRecipient</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/information-recipient]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/information-recipient}
 </t>
   </si>
   <si>
@@ -532,7 +532,7 @@
     <t>Composition.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -588,7 +588,7 @@
     <t>Composition.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -657,7 +657,7 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1)
 </t>
   </si>
   <si>
@@ -685,7 +685,7 @@
     <t>Composition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/encounter-es-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/encounter-es-1)
 </t>
   </si>
   <si>
@@ -710,7 +710,7 @@
     <t>Composition.date</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -738,7 +738,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-ident-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-ident-1)
 </t>
   </si>
   <si>
@@ -803,7 +803,7 @@
     <t>Composition.attester</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -842,7 +842,7 @@
     <t>attesterRelatedParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/attester-related-party]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/attester-related-party}
 </t>
   </si>
   <si>
@@ -913,7 +913,7 @@
     <t>Composition.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Patient|Practitioner|Organization)
 </t>
   </si>
   <si>
@@ -941,13 +941,10 @@
     <t>Legal attester</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="legal"/&gt;</t>
-  </si>
-  <si>
     <t>Composition.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-ident-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-ident-1)
 </t>
   </si>
   <si>
@@ -1027,8 +1024,8 @@
     <t>Composition.relatesTo.target[x]</t>
   </si>
   <si>
-    <t>Identifier {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Composition]]}</t>
+    <t>Identifier
+Reference(Composition)</t>
   </si>
   <si>
     <t>Target of the relationship</t>
@@ -1094,7 +1091,7 @@
     <t>Composition.event.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -1107,7 +1104,7 @@
     <t>Composition.event.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -1152,7 +1149,7 @@
     <t>sectionAuthor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/section-author]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/section-author}
 </t>
   </si>
   <si>
@@ -1342,7 +1339,7 @@
     <t>Summary information concerning the event.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Event Details"/&gt;</t>
+    <t>Event Details</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1353,7 +1350,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="snapshot"/&gt;</t>
+    <t>snapshot</t>
   </si>
   <si>
     <t>Encounter summary</t>
@@ -1372,7 +1369,7 @@
 cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-07:The section shall at least have one entry or an empty reason, but not both {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '48765-2').entry.exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '48765-2').emptyReason.exists()}</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Allergies and Adverse Reactions"/&gt;</t>
+    <t>Allergies and Adverse Reactions</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1383,7 +1380,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/allergyintolerance-summary-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/allergyintolerance-summary-1)
 </t>
   </si>
   <si>
@@ -1404,9 +1401,6 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
 cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-03:If present, the assertion of no relevant finding entry shall assert no known current medications {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '10160-0').exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '10160-0').entry.resolve().where($this is List).exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '10160-0').entry.resolve().where($this is Observation ).exists())}inv-dh-cmp-08:The section shall at least have one entry or an empty reason, but not both {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '10160-0').entry.exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '10160-0').emptyReason.exists()}</t>
-  </si>
-  <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medications"/&gt;</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1417,7 +1411,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/list-medseventchanges-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/list-medseventchanges-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1)
 </t>
   </si>
   <si>
@@ -1434,7 +1428,7 @@
 cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-04:This section shall not contain both summary statement of medical history entries (condition or procedure) and assertion of no relevant finding entries {Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is value and value.coding.code = '1224831000168103').exists())}inv-dh-cmp-09:The section shall at least have one entry or an empty reason, but not both {Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.exists() xor Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').emptyReason.exists()}inv-dh-cmp-12:This section shall contain at most one assertion of no relevant finding entry and it shall assert no relevant medical history {Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is value and value.coding.code = '1224831000168103').exists())}</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medical History"/&gt;</t>
+    <t>Medical History</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1445,7 +1439,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/condition-summary-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/procedure-summary-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/condition-summary-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/procedure-summary-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1)
 </t>
   </si>
   <si>
@@ -1460,9 +1454,6 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
 cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-05:This section shall not contain both summary statement of vaccine entries and assertion of no relevant finding entries {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Immunization).exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation ).exists())}inv-dh-cmp-10:The section shall at least have one entry or an empty reason, but not both {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').emptyReason.exists()}inv-dh-cmp-11:This section shall contain at most one assertion of no relevant finding entry and it shall assert either no history of vaccination or no vaccine administered during encounter {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is value and value.coding.code = '1234401000168109').exists())}</t>
-  </si>
-  <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Immunisations"/&gt;</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1473,7 +1464,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/immunization-summary-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/immunization-summary-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1)
 </t>
   </si>
   <si>
@@ -1489,7 +1480,7 @@
     <t>Information about diagnostic tests or procedures performed on or requested for an individual during this encounter, that are considered relevant to the individual's ongoing care. This does not include a full list of diagnostic tests and procedures performed on or request for the individual but only those that are relevant to the encounter.</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Diagnostic Investigations"/&gt;</t>
+    <t>Diagnostic Investigations</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1550,67 +1541,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1646,7 +1637,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM150"/>
+  <dimension ref="A1:AL150"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6279,7 +6270,7 @@
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>39</v>
@@ -6563,7 +6554,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6586,19 +6577,19 @@
         <v>51</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>39</v>
@@ -6647,7 +6638,7 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -6662,10 +6653,10 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>39</v>
@@ -6673,7 +6664,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6699,13 +6690,13 @@
         <v>250</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6755,7 +6746,7 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -6767,13 +6758,13 @@
         <v>39</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AJ47" t="s" s="2">
+      <c r="AK47" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>39</v>
@@ -6781,7 +6772,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6887,7 +6878,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6995,7 +6986,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7103,7 +7094,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7129,13 +7120,13 @@
         <v>119</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7164,46 +7155,46 @@
         <v>176</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="Y51" t="s" s="2">
+      <c r="Z51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
+      <c r="AK51" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>39</v>
@@ -7211,7 +7202,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7234,13 +7225,13 @@
         <v>51</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7291,7 +7282,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>50</v>
@@ -7306,10 +7297,10 @@
         <v>39</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>39</v>
@@ -7317,7 +7308,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7343,16 +7334,16 @@
         <v>250</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>39</v>
@@ -7401,7 +7392,7 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -7413,13 +7404,13 @@
         <v>39</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>39</v>
@@ -7427,7 +7418,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7533,7 +7524,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7641,7 +7632,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7749,7 +7740,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7775,13 +7766,13 @@
         <v>182</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7810,11 +7801,11 @@
         <v>109</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="Z57" t="s" s="2">
         <v>39</v>
       </c>
@@ -7831,7 +7822,7 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7857,7 +7848,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7880,13 +7871,13 @@
         <v>51</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7937,7 +7928,7 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -7963,7 +7954,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7986,13 +7977,13 @@
         <v>51</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8043,7 +8034,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -8058,7 +8049,7 @@
         <v>39</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>68</v>
@@ -8069,7 +8060,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8095,10 +8086,10 @@
         <v>250</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8137,7 +8128,7 @@
         <v>39</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
@@ -8147,7 +8138,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -8159,13 +8150,13 @@
         <v>39</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AJ60" t="s" s="2">
+      <c r="AK60" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>39</v>
@@ -8173,7 +8164,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8279,7 +8270,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8383,10 +8374,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B63" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>39</v>
@@ -8408,13 +8399,13 @@
         <v>39</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8491,7 +8482,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8599,11 +8590,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8625,16 +8616,16 @@
         <v>64</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>39</v>
@@ -8683,7 +8674,7 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
@@ -8709,7 +8700,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8735,16 +8726,16 @@
         <v>182</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>39</v>
@@ -8772,11 +8763,11 @@
         <v>109</v>
       </c>
       <c r="X66" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Y66" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Y66" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="Z66" t="s" s="2">
         <v>39</v>
       </c>
@@ -8793,7 +8784,7 @@
         <v>39</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
@@ -8819,7 +8810,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8845,13 +8836,13 @@
         <v>129</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8901,7 +8892,7 @@
         <v>39</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
@@ -8910,16 +8901,16 @@
         <v>50</v>
       </c>
       <c r="AH67" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AI67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="AK67" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>39</v>
@@ -8927,7 +8918,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8953,16 +8944,16 @@
         <v>119</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>39</v>
@@ -8990,43 +8981,43 @@
         <v>176</v>
       </c>
       <c r="X68" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Y68" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Y68" t="s" s="2">
+      <c r="Z68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>68</v>
@@ -9037,7 +9028,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9063,16 +9054,16 @@
         <v>182</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>39</v>
@@ -9100,43 +9091,43 @@
         <v>188</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y69" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y69" t="s" s="2">
+      <c r="Z69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>68</v>
@@ -9147,7 +9138,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9170,16 +9161,16 @@
         <v>39</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9229,7 +9220,7 @@
         <v>39</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
@@ -9238,16 +9229,16 @@
         <v>41</v>
       </c>
       <c r="AH70" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AI70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
+      <c r="AK70" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>39</v>
@@ -9255,7 +9246,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9281,16 +9272,16 @@
         <v>182</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>39</v>
@@ -9318,43 +9309,43 @@
         <v>188</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="Y71" t="s" s="2">
+      <c r="Z71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>68</v>
@@ -9365,7 +9356,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9391,13 +9382,13 @@
         <v>39</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9447,7 +9438,7 @@
         <v>39</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>40</v>
@@ -9456,16 +9447,16 @@
         <v>41</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>39</v>
@@ -9473,10 +9464,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>39</v>
@@ -9501,10 +9492,10 @@
         <v>250</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9555,7 +9546,7 @@
         <v>39</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>40</v>
@@ -9567,13 +9558,13 @@
         <v>39</v>
       </c>
       <c r="AI73" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AJ73" t="s" s="2">
+      <c r="AK73" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>39</v>
@@ -9581,7 +9572,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9687,7 +9678,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9791,10 +9782,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B76" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>39</v>
@@ -9816,13 +9807,13 @@
         <v>39</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="L76" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9899,7 +9890,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10007,11 +9998,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10033,23 +10024,23 @@
         <v>64</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>39</v>
@@ -10091,7 +10082,7 @@
         <v>39</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
@@ -10117,7 +10108,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10143,23 +10134,23 @@
         <v>182</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>39</v>
@@ -10180,11 +10171,11 @@
         <v>109</v>
       </c>
       <c r="X79" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Y79" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Y79" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="Z79" t="s" s="2">
         <v>39</v>
       </c>
@@ -10201,7 +10192,7 @@
         <v>39</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>40</v>
@@ -10227,7 +10218,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10253,13 +10244,13 @@
         <v>129</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10309,7 +10300,7 @@
         <v>39</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>40</v>
@@ -10318,16 +10309,16 @@
         <v>50</v>
       </c>
       <c r="AH80" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AI80" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="AK80" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>39</v>
@@ -10335,7 +10326,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10361,23 +10352,23 @@
         <v>119</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R81" t="s" s="2">
         <v>39</v>
@@ -10398,43 +10389,43 @@
         <v>176</v>
       </c>
       <c r="X81" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Y81" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Y81" t="s" s="2">
+      <c r="Z81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>68</v>
@@ -10445,7 +10436,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10471,16 +10462,16 @@
         <v>182</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>39</v>
@@ -10508,43 +10499,43 @@
         <v>188</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y82" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y82" t="s" s="2">
+      <c r="Z82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>68</v>
@@ -10555,7 +10546,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10581,13 +10572,13 @@
         <v>212</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="L83" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -10637,7 +10628,7 @@
         <v>39</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>40</v>
@@ -10646,16 +10637,16 @@
         <v>41</v>
       </c>
       <c r="AH83" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AI83" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
+      <c r="AK83" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>39</v>
@@ -10663,7 +10654,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10689,16 +10680,16 @@
         <v>182</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>39</v>
@@ -10726,43 +10717,43 @@
         <v>188</v>
       </c>
       <c r="X84" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="Y84" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="Y84" t="s" s="2">
+      <c r="Z84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>68</v>
@@ -10773,7 +10764,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10799,13 +10790,13 @@
         <v>39</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -10855,7 +10846,7 @@
         <v>39</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
@@ -10864,16 +10855,16 @@
         <v>41</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>39</v>
@@ -10881,10 +10872,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>39</v>
@@ -10909,10 +10900,10 @@
         <v>250</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10963,7 +10954,7 @@
         <v>39</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>40</v>
@@ -10975,13 +10966,13 @@
         <v>39</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AJ86" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AK86" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>39</v>
@@ -10989,7 +10980,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11095,7 +11086,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11199,10 +11190,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B89" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="C89" t="s" s="2">
         <v>39</v>
@@ -11224,13 +11215,13 @@
         <v>39</v>
       </c>
       <c r="J89" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K89" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="K89" t="s" s="2">
+      <c r="L89" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11307,7 +11298,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11415,11 +11406,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11441,23 +11432,23 @@
         <v>64</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>39</v>
@@ -11499,7 +11490,7 @@
         <v>39</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>40</v>
@@ -11525,7 +11516,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11551,23 +11542,23 @@
         <v>182</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="R92" t="s" s="2">
         <v>39</v>
@@ -11588,11 +11579,11 @@
         <v>109</v>
       </c>
       <c r="X92" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Y92" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Y92" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="Z92" t="s" s="2">
         <v>39</v>
       </c>
@@ -11609,7 +11600,7 @@
         <v>39</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>40</v>
@@ -11635,7 +11626,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11661,13 +11652,13 @@
         <v>129</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -11717,7 +11708,7 @@
         <v>39</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>40</v>
@@ -11726,16 +11717,16 @@
         <v>50</v>
       </c>
       <c r="AH93" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AI93" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="AK93" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>39</v>
@@ -11743,7 +11734,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11769,23 +11760,23 @@
         <v>119</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R94" t="s" s="2">
         <v>39</v>
@@ -11806,43 +11797,43 @@
         <v>176</v>
       </c>
       <c r="X94" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Y94" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Y94" t="s" s="2">
+      <c r="Z94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>68</v>
@@ -11853,7 +11844,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11879,16 +11870,16 @@
         <v>182</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>39</v>
@@ -11916,43 +11907,43 @@
         <v>188</v>
       </c>
       <c r="X95" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y95" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y95" t="s" s="2">
+      <c r="Z95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>68</v>
@@ -11963,7 +11954,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -11986,16 +11977,16 @@
         <v>39</v>
       </c>
       <c r="J96" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="K96" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="K96" t="s" s="2">
-        <v>435</v>
-      </c>
       <c r="L96" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -12045,7 +12036,7 @@
         <v>39</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>40</v>
@@ -12054,16 +12045,16 @@
         <v>41</v>
       </c>
       <c r="AH96" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AI96" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
+      <c r="AK96" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>39</v>
@@ -12071,7 +12062,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12097,16 +12088,16 @@
         <v>182</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>39</v>
@@ -12135,7 +12126,7 @@
       </c>
       <c r="X97" s="2"/>
       <c r="Y97" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>39</v>
@@ -12153,7 +12144,7 @@
         <v>39</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>40</v>
@@ -12162,13 +12153,13 @@
         <v>50</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>68</v>
@@ -12179,7 +12170,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12205,13 +12196,13 @@
         <v>39</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -12261,7 +12252,7 @@
         <v>39</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>40</v>
@@ -12270,16 +12261,16 @@
         <v>41</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>39</v>
@@ -12287,10 +12278,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C99" t="s" s="2">
         <v>39</v>
@@ -12315,10 +12306,10 @@
         <v>250</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -12369,7 +12360,7 @@
         <v>39</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>40</v>
@@ -12381,13 +12372,13 @@
         <v>39</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AJ99" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AK99" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>39</v>
@@ -12395,7 +12386,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12501,7 +12492,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12605,10 +12596,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B102" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="C102" t="s" s="2">
         <v>39</v>
@@ -12630,13 +12621,13 @@
         <v>39</v>
       </c>
       <c r="J102" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K102" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="K102" t="s" s="2">
+      <c r="L102" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12713,7 +12704,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12821,11 +12812,11 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -12847,23 +12838,23 @@
         <v>64</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L104" t="s" s="2">
+      <c r="M104" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="R104" t="s" s="2">
         <v>39</v>
@@ -12905,7 +12896,7 @@
         <v>39</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>40</v>
@@ -12931,7 +12922,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12957,23 +12948,23 @@
         <v>182</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="M105" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="R105" t="s" s="2">
         <v>39</v>
@@ -12994,11 +12985,11 @@
         <v>109</v>
       </c>
       <c r="X105" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Y105" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Y105" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="Z105" t="s" s="2">
         <v>39</v>
       </c>
@@ -13015,7 +13006,7 @@
         <v>39</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>40</v>
@@ -13041,7 +13032,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13067,13 +13058,13 @@
         <v>129</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -13123,7 +13114,7 @@
         <v>39</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>40</v>
@@ -13132,16 +13123,16 @@
         <v>50</v>
       </c>
       <c r="AH106" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AI106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="AK106" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>39</v>
@@ -13149,7 +13140,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13175,23 +13166,23 @@
         <v>119</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L107" t="s" s="2">
+      <c r="M107" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M107" t="s" s="2">
+      <c r="N107" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R107" t="s" s="2">
         <v>39</v>
@@ -13212,43 +13203,43 @@
         <v>176</v>
       </c>
       <c r="X107" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Y107" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Y107" t="s" s="2">
+      <c r="Z107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>68</v>
@@ -13259,7 +13250,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13285,16 +13276,16 @@
         <v>182</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L108" t="s" s="2">
+      <c r="M108" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="N108" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>39</v>
@@ -13322,43 +13313,43 @@
         <v>188</v>
       </c>
       <c r="X108" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y108" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y108" t="s" s="2">
+      <c r="Z108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>68</v>
@@ -13369,7 +13360,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13392,16 +13383,16 @@
         <v>39</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
@@ -13451,7 +13442,7 @@
         <v>39</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>40</v>
@@ -13460,16 +13451,16 @@
         <v>41</v>
       </c>
       <c r="AH109" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AI109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
+      <c r="AK109" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>39</v>
@@ -13477,7 +13468,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13503,16 +13494,16 @@
         <v>182</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L110" t="s" s="2">
+      <c r="M110" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>39</v>
@@ -13541,7 +13532,7 @@
       </c>
       <c r="X110" s="2"/>
       <c r="Y110" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>39</v>
@@ -13559,7 +13550,7 @@
         <v>39</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>40</v>
@@ -13568,13 +13559,13 @@
         <v>50</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>68</v>
@@ -13585,7 +13576,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13611,13 +13602,13 @@
         <v>39</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L111" t="s" s="2">
+      <c r="M111" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -13667,7 +13658,7 @@
         <v>39</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>40</v>
@@ -13676,16 +13667,16 @@
         <v>41</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>39</v>
@@ -13693,10 +13684,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>39</v>
@@ -13721,10 +13712,10 @@
         <v>250</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -13775,7 +13766,7 @@
         <v>39</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>40</v>
@@ -13787,13 +13778,13 @@
         <v>39</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AJ112" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AK112" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>39</v>
@@ -13801,7 +13792,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13907,7 +13898,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -14011,10 +14002,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B115" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="C115" t="s" s="2">
         <v>39</v>
@@ -14036,13 +14027,13 @@
         <v>39</v>
       </c>
       <c r="J115" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K115" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="K115" t="s" s="2">
+      <c r="L115" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -14119,7 +14110,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14227,11 +14218,11 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -14253,23 +14244,23 @@
         <v>64</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L117" t="s" s="2">
+      <c r="M117" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="R117" t="s" s="2">
         <v>39</v>
@@ -14311,7 +14302,7 @@
         <v>39</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>40</v>
@@ -14337,7 +14328,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14363,23 +14354,23 @@
         <v>182</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L118" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L118" t="s" s="2">
+      <c r="M118" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M118" t="s" s="2">
+      <c r="N118" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P118" s="2"/>
       <c r="Q118" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="R118" t="s" s="2">
         <v>39</v>
@@ -14400,11 +14391,11 @@
         <v>109</v>
       </c>
       <c r="X118" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Y118" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Y118" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="Z118" t="s" s="2">
         <v>39</v>
       </c>
@@ -14421,7 +14412,7 @@
         <v>39</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>40</v>
@@ -14447,7 +14438,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14473,13 +14464,13 @@
         <v>129</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L119" t="s" s="2">
+      <c r="M119" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
@@ -14529,7 +14520,7 @@
         <v>39</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>40</v>
@@ -14538,16 +14529,16 @@
         <v>50</v>
       </c>
       <c r="AH119" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AI119" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="AK119" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>39</v>
@@ -14555,7 +14546,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14581,23 +14572,23 @@
         <v>119</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L120" t="s" s="2">
+      <c r="M120" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R120" t="s" s="2">
         <v>39</v>
@@ -14618,43 +14609,43 @@
         <v>176</v>
       </c>
       <c r="X120" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Y120" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Y120" t="s" s="2">
+      <c r="Z120" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>68</v>
@@ -14665,7 +14656,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14691,16 +14682,16 @@
         <v>182</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L121" t="s" s="2">
+      <c r="M121" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>39</v>
@@ -14728,43 +14719,43 @@
         <v>188</v>
       </c>
       <c r="X121" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y121" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y121" t="s" s="2">
+      <c r="Z121" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>68</v>
@@ -14775,7 +14766,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -14798,16 +14789,16 @@
         <v>39</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
@@ -14857,7 +14848,7 @@
         <v>39</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>40</v>
@@ -14866,16 +14857,16 @@
         <v>41</v>
       </c>
       <c r="AH122" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AI122" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
+      <c r="AK122" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>39</v>
@@ -14883,7 +14874,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -14909,16 +14900,16 @@
         <v>182</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L123" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L123" t="s" s="2">
+      <c r="M123" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M123" t="s" s="2">
+      <c r="N123" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>39</v>
@@ -14947,7 +14938,7 @@
       </c>
       <c r="X123" s="2"/>
       <c r="Y123" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>39</v>
@@ -14965,7 +14956,7 @@
         <v>39</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>40</v>
@@ -14974,13 +14965,13 @@
         <v>50</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>68</v>
@@ -14991,7 +14982,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -15017,13 +15008,13 @@
         <v>39</v>
       </c>
       <c r="K124" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L124" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L124" t="s" s="2">
+      <c r="M124" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -15073,7 +15064,7 @@
         <v>39</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>40</v>
@@ -15082,16 +15073,16 @@
         <v>41</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>39</v>
@@ -15099,10 +15090,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C125" t="s" s="2">
         <v>39</v>
@@ -15127,10 +15118,10 @@
         <v>250</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="M125" s="2"/>
       <c r="N125" s="2"/>
@@ -15181,7 +15172,7 @@
         <v>39</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>40</v>
@@ -15193,13 +15184,13 @@
         <v>39</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AJ125" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AK125" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AL125" t="s" s="2">
         <v>39</v>
@@ -15207,7 +15198,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -15313,7 +15304,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -15417,10 +15408,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B128" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="B128" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="C128" t="s" s="2">
         <v>39</v>
@@ -15442,13 +15433,13 @@
         <v>39</v>
       </c>
       <c r="J128" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K128" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="K128" t="s" s="2">
+      <c r="L128" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L128" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" s="2"/>
@@ -15525,7 +15516,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -15633,11 +15624,11 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -15659,23 +15650,23 @@
         <v>64</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L130" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L130" t="s" s="2">
+      <c r="M130" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M130" t="s" s="2">
+      <c r="N130" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P130" s="2"/>
       <c r="Q130" t="s" s="2">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="R130" t="s" s="2">
         <v>39</v>
@@ -15717,7 +15708,7 @@
         <v>39</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>40</v>
@@ -15743,7 +15734,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -15769,23 +15760,23 @@
         <v>182</v>
       </c>
       <c r="K131" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L131" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L131" t="s" s="2">
+      <c r="M131" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M131" t="s" s="2">
+      <c r="N131" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N131" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O131" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P131" s="2"/>
       <c r="Q131" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="R131" t="s" s="2">
         <v>39</v>
@@ -15806,11 +15797,11 @@
         <v>109</v>
       </c>
       <c r="X131" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Y131" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Y131" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="Z131" t="s" s="2">
         <v>39</v>
       </c>
@@ -15827,7 +15818,7 @@
         <v>39</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>40</v>
@@ -15853,7 +15844,7 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -15879,13 +15870,13 @@
         <v>129</v>
       </c>
       <c r="K132" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L132" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L132" t="s" s="2">
+      <c r="M132" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
@@ -15935,7 +15926,7 @@
         <v>39</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>40</v>
@@ -15944,16 +15935,16 @@
         <v>50</v>
       </c>
       <c r="AH132" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AI132" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ132" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AI132" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ132" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="AK132" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>39</v>
@@ -15961,7 +15952,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -15987,23 +15978,23 @@
         <v>119</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L133" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L133" t="s" s="2">
+      <c r="M133" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M133" t="s" s="2">
+      <c r="N133" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="N133" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O133" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P133" s="2"/>
       <c r="Q133" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R133" t="s" s="2">
         <v>39</v>
@@ -16024,43 +16015,43 @@
         <v>176</v>
       </c>
       <c r="X133" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Y133" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Y133" t="s" s="2">
+      <c r="Z133" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AF133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG133" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH133" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI133" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ133" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="Z133" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA133" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB133" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC133" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD133" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE133" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AF133" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG133" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH133" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI133" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ133" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AK133" t="s" s="2">
         <v>68</v>
@@ -16071,7 +16062,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
@@ -16097,16 +16088,16 @@
         <v>182</v>
       </c>
       <c r="K134" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L134" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L134" t="s" s="2">
+      <c r="M134" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M134" t="s" s="2">
+      <c r="N134" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O134" t="s" s="2">
         <v>39</v>
@@ -16134,43 +16125,43 @@
         <v>188</v>
       </c>
       <c r="X134" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y134" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y134" t="s" s="2">
+      <c r="Z134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE134" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG134" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ134" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AF134" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AK134" t="s" s="2">
         <v>68</v>
@@ -16181,7 +16172,7 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
@@ -16204,16 +16195,16 @@
         <v>39</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M135" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
@@ -16263,7 +16254,7 @@
         <v>39</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>40</v>
@@ -16272,16 +16263,16 @@
         <v>41</v>
       </c>
       <c r="AH135" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AI135" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ135" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AI135" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ135" t="s" s="2">
+      <c r="AK135" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>39</v>
@@ -16289,7 +16280,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -16315,16 +16306,16 @@
         <v>182</v>
       </c>
       <c r="K136" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L136" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L136" t="s" s="2">
+      <c r="M136" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M136" t="s" s="2">
+      <c r="N136" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>39</v>
@@ -16353,7 +16344,7 @@
       </c>
       <c r="X136" s="2"/>
       <c r="Y136" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>39</v>
@@ -16371,7 +16362,7 @@
         <v>39</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>40</v>
@@ -16380,13 +16371,13 @@
         <v>50</v>
       </c>
       <c r="AH136" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AI136" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AK136" t="s" s="2">
         <v>68</v>
@@ -16397,7 +16388,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -16423,13 +16414,13 @@
         <v>39</v>
       </c>
       <c r="K137" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L137" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L137" t="s" s="2">
+      <c r="M137" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M137" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
@@ -16479,7 +16470,7 @@
         <v>39</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>40</v>
@@ -16488,16 +16479,16 @@
         <v>41</v>
       </c>
       <c r="AH137" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AI137" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ137" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AL137" t="s" s="2">
         <v>39</v>
@@ -16505,10 +16496,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C138" t="s" s="2">
         <v>39</v>
@@ -16533,10 +16524,10 @@
         <v>250</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M138" s="2"/>
       <c r="N138" s="2"/>
@@ -16587,7 +16578,7 @@
         <v>39</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF138" t="s" s="2">
         <v>40</v>
@@ -16599,13 +16590,13 @@
         <v>39</v>
       </c>
       <c r="AI138" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AJ138" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AJ138" t="s" s="2">
+      <c r="AK138" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AK138" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AL138" t="s" s="2">
         <v>39</v>
@@ -16613,7 +16604,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -16719,7 +16710,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -16823,10 +16814,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B141" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="B141" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="C141" t="s" s="2">
         <v>39</v>
@@ -16848,13 +16839,13 @@
         <v>39</v>
       </c>
       <c r="J141" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="K141" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="K141" t="s" s="2">
+      <c r="L141" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L141" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
@@ -16931,7 +16922,7 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -17039,11 +17030,11 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -17065,23 +17056,23 @@
         <v>64</v>
       </c>
       <c r="K143" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L143" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L143" t="s" s="2">
+      <c r="M143" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M143" t="s" s="2">
+      <c r="N143" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O143" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P143" s="2"/>
       <c r="Q143" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="R143" t="s" s="2">
         <v>39</v>
@@ -17123,7 +17114,7 @@
         <v>39</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>40</v>
@@ -17149,7 +17140,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -17175,23 +17166,23 @@
         <v>182</v>
       </c>
       <c r="K144" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L144" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="L144" t="s" s="2">
+      <c r="M144" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="M144" t="s" s="2">
+      <c r="N144" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="N144" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="O144" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="R144" t="s" s="2">
         <v>39</v>
@@ -17212,11 +17203,11 @@
         <v>109</v>
       </c>
       <c r="X144" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="Y144" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Y144" t="s" s="2">
-        <v>378</v>
-      </c>
       <c r="Z144" t="s" s="2">
         <v>39</v>
       </c>
@@ -17233,7 +17224,7 @@
         <v>39</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF144" t="s" s="2">
         <v>40</v>
@@ -17259,7 +17250,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -17285,13 +17276,13 @@
         <v>129</v>
       </c>
       <c r="K145" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L145" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L145" t="s" s="2">
+      <c r="M145" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M145" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
@@ -17341,7 +17332,7 @@
         <v>39</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>40</v>
@@ -17350,16 +17341,16 @@
         <v>50</v>
       </c>
       <c r="AH145" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AI145" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ145" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AI145" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ145" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="AK145" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AL145" t="s" s="2">
         <v>39</v>
@@ -17367,7 +17358,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -17393,23 +17384,23 @@
         <v>119</v>
       </c>
       <c r="K146" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L146" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L146" t="s" s="2">
+      <c r="M146" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M146" t="s" s="2">
+      <c r="N146" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O146" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P146" s="2"/>
       <c r="Q146" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R146" t="s" s="2">
         <v>39</v>
@@ -17430,43 +17421,43 @@
         <v>176</v>
       </c>
       <c r="X146" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Y146" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Y146" t="s" s="2">
+      <c r="Z146" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AF146" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG146" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH146" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI146" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ146" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="Z146" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA146" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB146" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC146" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD146" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE146" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="AF146" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG146" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH146" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI146" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ146" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="AK146" t="s" s="2">
         <v>68</v>
@@ -17477,7 +17468,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -17503,16 +17494,16 @@
         <v>182</v>
       </c>
       <c r="K147" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L147" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="L147" t="s" s="2">
+      <c r="M147" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="M147" t="s" s="2">
+      <c r="N147" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>39</v>
@@ -17540,43 +17531,43 @@
         <v>188</v>
       </c>
       <c r="X147" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Y147" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Y147" t="s" s="2">
+      <c r="Z147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE147" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AF147" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG147" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ147" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="Z147" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA147" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB147" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC147" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD147" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE147" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AF147" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG147" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH147" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI147" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ147" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AK147" t="s" s="2">
         <v>68</v>
@@ -17587,7 +17578,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -17610,16 +17601,16 @@
         <v>39</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K148" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L148" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L148" t="s" s="2">
+      <c r="M148" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
@@ -17669,7 +17660,7 @@
         <v>39</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>40</v>
@@ -17678,16 +17669,16 @@
         <v>41</v>
       </c>
       <c r="AH148" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AI148" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ148" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="AI148" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ148" t="s" s="2">
+      <c r="AK148" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AK148" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>39</v>
@@ -17695,7 +17686,7 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -17721,16 +17712,16 @@
         <v>182</v>
       </c>
       <c r="K149" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L149" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="L149" t="s" s="2">
+      <c r="M149" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M149" t="s" s="2">
+      <c r="N149" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="O149" t="s" s="2">
         <v>39</v>
@@ -17758,43 +17749,43 @@
         <v>188</v>
       </c>
       <c r="X149" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="Y149" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="Y149" t="s" s="2">
+      <c r="Z149" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA149" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE149" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AF149" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG149" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH149" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AI149" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ149" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="Z149" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA149" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC149" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD149" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE149" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AF149" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG149" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH149" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AI149" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ149" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AK149" t="s" s="2">
         <v>68</v>
@@ -17805,7 +17796,7 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -17831,13 +17822,13 @@
         <v>39</v>
       </c>
       <c r="K150" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L150" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L150" t="s" s="2">
+      <c r="M150" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
@@ -17887,7 +17878,7 @@
         <v>39</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>40</v>
@@ -17896,16 +17887,16 @@
         <v>41</v>
       </c>
       <c r="AH150" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AI150" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ150" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AL150" t="s" s="2">
         <v>39</v>

--- a/output/EventSummary/composition-es-1.xlsx
+++ b/output/EventSummary/composition-es-1.xlsx
@@ -206,7 +206,7 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">inv-dh-cmp-01:One meta.profile shall be 'http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/composition-es-1' {Composition.meta.profile.where($this='http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/composition-es-1').exists()}
+    <t xml:space="preserve">inv-dh-cmp-01:One profile shall be 'http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/composition-es-1' {profile.where($this='http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/composition-es-1').exists()}
 </t>
   </si>
   <si>

--- a/output/EventSummary/composition-es-1.xlsx
+++ b/output/EventSummary/composition-es-1.xlsx
@@ -306,7 +306,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](https://build.fhir.org/ig/hl7au/au-fhir-base-stu3/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](https://build.fhir.org/ig/hl7au/au-fhir-base-stu3/).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/STU3/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/STU3/).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
